--- a/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_5_38.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_5_38.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3844529.809881202</v>
+        <v>3842278.991495308</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>6654055.582836237</v>
+        <v>6654055.582836238</v>
       </c>
     </row>
     <row r="8">
@@ -665,19 +665,19 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>335.6186932117569</v>
+        <v>133.35833737073</v>
       </c>
       <c r="F2" t="n">
         <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>13.784170020795</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -722,7 +722,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -820,25 +820,25 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>7.948401543480728</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>134.9656217923383</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.19995918853701</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -859,16 +859,16 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.12274995491431</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -877,7 +877,7 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>230.2634979541059</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -899,22 +899,22 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>13.784170020795</v>
+        <v>168.8841199149497</v>
       </c>
       <c r="H5" t="n">
-        <v>163.9398379243025</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -944,19 +944,19 @@
         <v>54.47840257481172</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
@@ -1054,16 +1054,16 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>136.1916198885552</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -1096,10 +1096,10 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -1108,19 +1108,19 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>13.80890171427166</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1133,10 +1133,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>228.4864079129601</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -1145,7 +1145,7 @@
         <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1178,16 +1178,16 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.47840257481174</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>219.1570781143512</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
@@ -1196,10 +1196,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1230,7 +1230,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250819</v>
+        <v>61.4222199825082</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,7 +1257,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229333</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1291,19 +1291,19 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>127.9907220675518</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1342,7 +1342,7 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -1357,7 +1357,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>216.6993815150875</v>
       </c>
     </row>
     <row r="11">
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634819</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
         <v>365.2728917710076</v>
@@ -1525,7 +1525,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>163.6898441249708</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -1540,10 +1540,10 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>134.4415385849324</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1573,7 +1573,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S13" t="n">
         <v>189.7690253314419</v>
@@ -1591,7 +1591,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -1613,7 +1613,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722623</v>
       </c>
       <c r="F14" t="n">
         <v>406.8760457417114</v>
@@ -1673,7 +1673,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.237938656054</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="15">
@@ -1704,7 +1704,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I15" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1762,22 +1762,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>74.75769145492337</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>166.0258082590283</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1810,28 +1810,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>88.93215267004739</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S16" t="n">
-        <v>189.769025331442</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U16" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>244.4108051628695</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1859,7 +1859,7 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H17" t="n">
-        <v>294.6077643873208</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I17" t="n">
         <v>41.57692977292595</v>
@@ -1941,7 +1941,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I18" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1999,7 +1999,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
@@ -2011,13 +2011,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2047,7 +2047,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>88.93215267004739</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -2056,16 +2056,16 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V19" t="n">
-        <v>163.94238636574</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>31.80057351588484</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -2205,7 +2205,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S21" t="n">
         <v>128.1435076414547</v>
@@ -2236,19 +2236,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>74.75769145492362</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -2284,13 +2284,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U22" t="n">
         <v>286.2118382056129</v>
@@ -2299,7 +2299,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>217.4025801238254</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
@@ -2476,7 +2476,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>137.2614579387392</v>
+        <v>34.70358683203023</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -2485,7 +2485,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -2521,16 +2521,16 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S25" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -2539,7 +2539,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -2552,7 +2552,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634815</v>
       </c>
       <c r="C26" t="n">
         <v>365.2728917710076</v>
@@ -2606,7 +2606,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T26" t="n">
-        <v>203.9179701396193</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U26" t="n">
         <v>250.995171958902</v>
@@ -2710,13 +2710,13 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>45.41839567467457</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -2725,7 +2725,7 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2761,10 +2761,10 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U28" t="n">
         <v>286.2118382056129</v>
@@ -2773,13 +2773,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>189.5557098750363</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -2950,25 +2950,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.3848965658451</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,13 +2995,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T31" t="n">
-        <v>217.402580123827</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U31" t="n">
         <v>286.2118382056129</v>
@@ -3013,7 +3013,7 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -3184,28 +3184,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>151.4356471531006</v>
+        <v>151.4356471531007</v>
       </c>
       <c r="C34" t="n">
-        <v>138.8504880697911</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>120.2191399893757</v>
       </c>
       <c r="E34" t="n">
-        <v>118.0376296177325</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>137.6294752301915</v>
+        <v>68.60876728915632</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>116.3586818854842</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>67.95608738100148</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,28 +3232,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>60.53581964121072</v>
       </c>
       <c r="S34" t="n">
-        <v>161.3726923026052</v>
+        <v>161.3726923026053</v>
       </c>
       <c r="T34" t="n">
-        <v>191.1526162473325</v>
+        <v>191.1526162473326</v>
       </c>
       <c r="U34" t="n">
         <v>257.8155051767762</v>
       </c>
       <c r="V34" t="n">
-        <v>223.7413102949913</v>
+        <v>223.7413102949914</v>
       </c>
       <c r="W34" t="n">
-        <v>258.1266653077543</v>
+        <v>258.1266653077544</v>
       </c>
       <c r="X34" t="n">
         <v>197.3133223602005</v>
       </c>
       <c r="Y34" t="n">
-        <v>109.1300836023968</v>
+        <v>190.1883203232582</v>
       </c>
     </row>
     <row r="35">
@@ -3278,7 +3278,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>410.9217256534534</v>
+        <v>410.9217256534538</v>
       </c>
       <c r="H35" t="n">
         <v>294.6077643873205</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>109.1877617881769</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T35" t="n">
         <v>203.9179701396201</v>
@@ -3363,7 +3363,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I36" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3421,25 +3421,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>151.4356471531006</v>
+        <v>151.4356471531007</v>
       </c>
       <c r="C37" t="n">
-        <v>138.8504880697911</v>
+        <v>138.8504880697912</v>
       </c>
       <c r="D37" t="n">
-        <v>120.2191399893757</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>118.0376296177325</v>
+        <v>118.0376296177326</v>
       </c>
       <c r="F37" t="n">
-        <v>117.0247149940946</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>137.6294752301915</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>116.3586818854841</v>
+        <v>116.2545588574941</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3469,28 +3469,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>60.53581964121071</v>
       </c>
       <c r="S37" t="n">
-        <v>38.08367494949827</v>
+        <v>161.3726923026053</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>191.1526162473326</v>
       </c>
       <c r="U37" t="n">
         <v>257.8155051767762</v>
       </c>
       <c r="V37" t="n">
-        <v>223.7413102949913</v>
+        <v>223.7413102949914</v>
       </c>
       <c r="W37" t="n">
-        <v>258.1266653077543</v>
+        <v>258.1266653077544</v>
       </c>
       <c r="X37" t="n">
         <v>197.3133223602005</v>
       </c>
       <c r="Y37" t="n">
-        <v>190.1883203232581</v>
+        <v>190.1883203232582</v>
       </c>
     </row>
     <row r="38">
@@ -3512,7 +3512,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
-        <v>406.8760457417118</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
         <v>410.9217256534534</v>
@@ -3658,28 +3658,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>123.8629559487297</v>
+        <v>151.4356471531007</v>
       </c>
       <c r="C40" t="n">
-        <v>138.8504880697911</v>
+        <v>115.2940613254508</v>
       </c>
       <c r="D40" t="n">
         <v>120.2191399893757</v>
       </c>
       <c r="E40" t="n">
-        <v>118.0376296177325</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>117.0247149940946</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>137.6294752301916</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>67.9560873810014</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,28 +3706,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>60.53581964121064</v>
+        <v>60.53581964121071</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>161.3726923026053</v>
       </c>
       <c r="T40" t="n">
-        <v>191.1526162473325</v>
+        <v>191.1526162473326</v>
       </c>
       <c r="U40" t="n">
         <v>257.8155051767762</v>
       </c>
       <c r="V40" t="n">
-        <v>223.7413102949913</v>
+        <v>223.7413102949914</v>
       </c>
       <c r="W40" t="n">
-        <v>258.1266653077543</v>
+        <v>258.1266653077544</v>
       </c>
       <c r="X40" t="n">
         <v>197.3133223602005</v>
       </c>
       <c r="Y40" t="n">
-        <v>190.1883203232581</v>
+        <v>190.1883203232582</v>
       </c>
     </row>
     <row r="41">
@@ -3752,7 +3752,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>410.9217256534534</v>
+        <v>410.9217256534538</v>
       </c>
       <c r="H41" t="n">
         <v>294.6077643873205</v>
@@ -3895,7 +3895,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>151.4356471531006</v>
+        <v>151.4356471531007</v>
       </c>
       <c r="C43" t="n">
         <v>138.8504880697912</v>
@@ -3904,16 +3904,16 @@
         <v>120.2191399893757</v>
       </c>
       <c r="E43" t="n">
-        <v>118.0376296177325</v>
+        <v>114.0730484858508</v>
       </c>
       <c r="F43" t="n">
-        <v>117.0247149940946</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>137.6294752301916</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>116.3586818854841</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3943,19 +3943,19 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>60.53581964121071</v>
       </c>
       <c r="S43" t="n">
-        <v>38.0836749494976</v>
+        <v>161.3726923026053</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>191.1526162473326</v>
       </c>
       <c r="U43" t="n">
         <v>257.8155051767762</v>
       </c>
       <c r="V43" t="n">
-        <v>223.7413102949913</v>
+        <v>223.7413102949914</v>
       </c>
       <c r="W43" t="n">
         <v>258.1266653077544</v>
@@ -3964,7 +3964,7 @@
         <v>197.3133223602005</v>
       </c>
       <c r="Y43" t="n">
-        <v>190.1883203232581</v>
+        <v>190.1883203232582</v>
       </c>
     </row>
     <row r="44">
@@ -3992,10 +3992,10 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H44" t="n">
-        <v>294.6077643873206</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I44" t="n">
-        <v>41.57692977292629</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4025,10 +4025,10 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>109.187761788176</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T44" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U44" t="n">
         <v>250.995171958902</v>
@@ -4071,10 +4071,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H45" t="n">
-        <v>89.59687541851119</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I45" t="n">
-        <v>18.81721868247759</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4101,7 +4101,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0.1429098734101331</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S45" t="n">
         <v>128.1435076414547</v>
@@ -4132,16 +4132,16 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>151.4356471531006</v>
+        <v>151.4356471531007</v>
       </c>
       <c r="C46" t="n">
-        <v>138.8504880697912</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>120.2191399893757</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>118.0376296177325</v>
+        <v>118.0376296177326</v>
       </c>
       <c r="F46" t="n">
         <v>117.0247149940946</v>
@@ -4150,10 +4150,10 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>40.38339617662588</v>
+        <v>70.12424455218962</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>67.95608738100148</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,10 +4180,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>60.53581964121087</v>
+        <v>60.53581964121071</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>161.3726923026053</v>
       </c>
       <c r="T46" t="n">
         <v>191.1526162473326</v>
@@ -4192,7 +4192,7 @@
         <v>257.8155051767762</v>
       </c>
       <c r="V46" t="n">
-        <v>223.7413102949913</v>
+        <v>223.7413102949914</v>
       </c>
       <c r="W46" t="n">
         <v>258.1266653077544</v>
@@ -4201,7 +4201,7 @@
         <v>197.3133223602005</v>
       </c>
       <c r="Y46" t="n">
-        <v>190.1883203232581</v>
+        <v>190.1883203232582</v>
       </c>
     </row>
   </sheetData>
@@ -4304,25 +4304,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>936.2491605982757</v>
+        <v>1309.714918859356</v>
       </c>
       <c r="C2" t="n">
-        <v>567.286643657864</v>
+        <v>940.7524019189439</v>
       </c>
       <c r="D2" t="n">
-        <v>567.286643657864</v>
+        <v>940.7524019189439</v>
       </c>
       <c r="E2" t="n">
-        <v>228.2778626358874</v>
+        <v>806.0470106353782</v>
       </c>
       <c r="F2" t="n">
-        <v>221.3323618866839</v>
+        <v>799.1015098861748</v>
       </c>
       <c r="G2" t="n">
-        <v>207.4089578252748</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H2" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I2" t="n">
         <v>53.94298182036445</v>
@@ -4331,7 +4331,7 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L2" t="n">
         <v>881.2824271224076</v>
@@ -4340,7 +4340,7 @@
         <v>1362.238747280443</v>
       </c>
       <c r="N2" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O2" t="n">
         <v>2238.843319642689</v>
@@ -4370,10 +4370,10 @@
         <v>1309.714918859356</v>
       </c>
       <c r="X2" t="n">
-        <v>936.2491605982757</v>
+        <v>1309.714918859356</v>
       </c>
       <c r="Y2" t="n">
-        <v>936.2491605982757</v>
+        <v>1309.714918859356</v>
       </c>
     </row>
     <row r="3">
@@ -4383,43 +4383,43 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C3" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747041</v>
       </c>
       <c r="E3" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692486</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424005</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673422</v>
       </c>
       <c r="I3" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J3" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K3" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L3" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M3" t="n">
-        <v>1237.953133915166</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N3" t="n">
-        <v>1791.679670014717</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O3" t="n">
         <v>2188.831293537797</v>
@@ -4446,10 +4446,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W3" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X3" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y3" t="n">
         <v>1156.713312237151</v>
@@ -4462,28 +4462,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>698.7120650600561</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C4" t="n">
-        <v>698.7120650600561</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D4" t="n">
-        <v>548.5954256477204</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E4" t="n">
-        <v>540.5667372199621</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F4" t="n">
-        <v>393.6767897220518</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G4" t="n">
-        <v>393.6767897220518</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H4" t="n">
-        <v>235.9284171545819</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I4" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J4" t="n">
         <v>53.94298182036445</v>
@@ -4507,31 +4507,31 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Q4" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R4" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S4" t="n">
-        <v>698.7120650600561</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="T4" t="n">
-        <v>698.7120650600561</v>
+        <v>286.5323736931987</v>
       </c>
       <c r="U4" t="n">
-        <v>698.7120650600561</v>
+        <v>286.5323736931987</v>
       </c>
       <c r="V4" t="n">
-        <v>698.7120650600561</v>
+        <v>286.5323736931987</v>
       </c>
       <c r="W4" t="n">
-        <v>698.7120650600561</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="X4" t="n">
-        <v>698.7120650600561</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y4" t="n">
-        <v>698.7120650600561</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="5">
@@ -4541,25 +4541,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1156.179761166176</v>
+        <v>944.4614752479201</v>
       </c>
       <c r="C5" t="n">
-        <v>1156.179761166176</v>
+        <v>944.4614752479201</v>
       </c>
       <c r="D5" t="n">
-        <v>797.9140625594252</v>
+        <v>944.4614752479201</v>
       </c>
       <c r="E5" t="n">
-        <v>797.9140625594252</v>
+        <v>558.6732226496758</v>
       </c>
       <c r="F5" t="n">
-        <v>386.9281577698177</v>
+        <v>551.7277219004724</v>
       </c>
       <c r="G5" t="n">
-        <v>373.0047537084086</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H5" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I5" t="n">
         <v>53.94298182036444</v>
@@ -4592,25 +4592,25 @@
         <v>2642.120401548715</v>
       </c>
       <c r="S5" t="n">
-        <v>2465.942913862885</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="T5" t="n">
-        <v>2247.308246834948</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="U5" t="n">
-        <v>2247.308246834948</v>
+        <v>2388.358616186807</v>
       </c>
       <c r="V5" t="n">
-        <v>1916.245359491377</v>
+        <v>2057.295728843236</v>
       </c>
       <c r="W5" t="n">
-        <v>1916.245359491377</v>
+        <v>1704.527073573122</v>
       </c>
       <c r="X5" t="n">
-        <v>1542.779601230297</v>
+        <v>1331.061315312042</v>
       </c>
       <c r="Y5" t="n">
-        <v>1542.779601230297</v>
+        <v>1331.061315312042</v>
       </c>
     </row>
     <row r="6">
@@ -4647,19 +4647,19 @@
         <v>129.2001442204943</v>
       </c>
       <c r="K6" t="n">
-        <v>266.2060027641994</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L6" t="n">
-        <v>670.8219208598713</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M6" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N6" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O6" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P6" t="n">
         <v>2525.076107152626</v>
@@ -4699,16 +4699,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>507.3364050629041</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="C7" t="n">
-        <v>338.4002221349972</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="D7" t="n">
-        <v>338.4002221349972</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="E7" t="n">
-        <v>200.8329293182748</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="F7" t="n">
         <v>53.94298182036444</v>
@@ -4744,31 +4744,31 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064342</v>
+        <v>550.5654064942401</v>
       </c>
       <c r="S7" t="n">
-        <v>728.1289842064342</v>
+        <v>550.5654064942401</v>
       </c>
       <c r="T7" t="n">
-        <v>728.1289842064342</v>
+        <v>550.5654064942401</v>
       </c>
       <c r="U7" t="n">
-        <v>728.1289842064342</v>
+        <v>536.6170209242687</v>
       </c>
       <c r="V7" t="n">
-        <v>728.1289842064342</v>
+        <v>281.9325327183818</v>
       </c>
       <c r="W7" t="n">
-        <v>728.1289842064342</v>
+        <v>281.9325327183818</v>
       </c>
       <c r="X7" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="Y7" t="n">
-        <v>507.3364050629041</v>
+        <v>53.94298182036444</v>
       </c>
     </row>
     <row r="8">
@@ -4778,19 +4778,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>863.1126181035238</v>
+        <v>955.5060781830496</v>
       </c>
       <c r="C8" t="n">
-        <v>632.3182666762914</v>
+        <v>586.5435612426379</v>
       </c>
       <c r="D8" t="n">
-        <v>632.3182666762914</v>
+        <v>228.2778626358873</v>
       </c>
       <c r="E8" t="n">
-        <v>632.3182666762914</v>
+        <v>228.2778626358873</v>
       </c>
       <c r="F8" t="n">
-        <v>625.3727659270879</v>
+        <v>221.3323618866839</v>
       </c>
       <c r="G8" t="n">
         <v>207.4089578252748</v>
@@ -4826,28 +4826,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="S8" t="n">
-        <v>2697.149091018222</v>
+        <v>2465.942913862885</v>
       </c>
       <c r="T8" t="n">
-        <v>2697.149091018222</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U8" t="n">
-        <v>2697.149091018222</v>
+        <v>2025.937460860856</v>
       </c>
       <c r="V8" t="n">
-        <v>2366.086203674651</v>
+        <v>1694.874573517285</v>
       </c>
       <c r="W8" t="n">
-        <v>2013.317548404537</v>
+        <v>1342.105918247171</v>
       </c>
       <c r="X8" t="n">
-        <v>1639.851790143457</v>
+        <v>1342.105918247171</v>
       </c>
       <c r="Y8" t="n">
-        <v>1249.712458167646</v>
+        <v>1342.105918247171</v>
       </c>
     </row>
     <row r="9">
@@ -4881,25 +4881,25 @@
         <v>53.94298182036444</v>
       </c>
       <c r="J9" t="n">
-        <v>53.94298182036444</v>
+        <v>129.2001442204942</v>
       </c>
       <c r="K9" t="n">
-        <v>309.1903022614629</v>
+        <v>384.4474646615927</v>
       </c>
       <c r="L9" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572644</v>
       </c>
       <c r="M9" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315295</v>
       </c>
       <c r="N9" t="n">
-        <v>1791.679670014717</v>
+        <v>1866.936832414846</v>
       </c>
       <c r="O9" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P9" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q9" t="n">
         <v>2697.149091018223</v>
@@ -4936,19 +4936,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>500.1394333084169</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="C10" t="n">
-        <v>370.8558756644251</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="D10" t="n">
-        <v>370.8558756644251</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="E10" t="n">
-        <v>222.942782082032</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="F10" t="n">
-        <v>222.942782082032</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="G10" t="n">
         <v>53.94298182036444</v>
@@ -4969,43 +4969,43 @@
         <v>237.819032447791</v>
       </c>
       <c r="M10" t="n">
-        <v>382.7169011658209</v>
+        <v>382.7169011658208</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502498</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594901</v>
+        <v>649.26178935949</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064341</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064341</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064341</v>
       </c>
       <c r="S10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064341</v>
       </c>
       <c r="T10" t="n">
-        <v>728.1289842064342</v>
+        <v>500.8207968750359</v>
       </c>
       <c r="U10" t="n">
-        <v>728.1289842064342</v>
+        <v>500.8207968750359</v>
       </c>
       <c r="V10" t="n">
-        <v>728.1289842064342</v>
+        <v>500.8207968750359</v>
       </c>
       <c r="W10" t="n">
-        <v>728.1289842064342</v>
+        <v>500.8207968750359</v>
       </c>
       <c r="X10" t="n">
-        <v>500.1394333084169</v>
+        <v>272.8312459770185</v>
       </c>
       <c r="Y10" t="n">
-        <v>500.1394333084169</v>
+        <v>53.94298182036444</v>
       </c>
     </row>
     <row r="11">
@@ -5018,16 +5018,16 @@
         <v>2374.216356690176</v>
       </c>
       <c r="C11" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D11" t="n">
         <v>1646.988141143014</v>
       </c>
       <c r="E11" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F11" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551624</v>
       </c>
       <c r="G11" t="n">
         <v>435.1415336001585</v>
@@ -5039,28 +5039,28 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J11" t="n">
-        <v>451.8458144277729</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K11" t="n">
-        <v>785.6651881176194</v>
+        <v>939.1634975427194</v>
       </c>
       <c r="L11" t="n">
-        <v>1650.184003770974</v>
+        <v>1803.682313196074</v>
       </c>
       <c r="M11" t="n">
-        <v>2183.715908442899</v>
+        <v>2782.232616025903</v>
       </c>
       <c r="N11" t="n">
-        <v>2730.494725501681</v>
+        <v>3329.011433084685</v>
       </c>
       <c r="O11" t="n">
-        <v>3610.459375831136</v>
+        <v>3831.983903964022</v>
       </c>
       <c r="P11" t="n">
-        <v>4323.814463278081</v>
+        <v>4260.556453353931</v>
       </c>
       <c r="Q11" t="n">
-        <v>4653.975400188666</v>
+        <v>4719.034655862919</v>
       </c>
       <c r="R11" t="n">
         <v>4778.051722419721</v>
@@ -5072,13 +5072,13 @@
         <v>4461.783306331038</v>
       </c>
       <c r="U11" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V11" t="n">
         <v>3877.189942261304</v>
       </c>
       <c r="W11" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X11" t="n">
         <v>3150.95552873011</v>
@@ -5109,22 +5109,22 @@
         <v>341.4333205763708</v>
       </c>
       <c r="G12" t="n">
-        <v>205.0702204089891</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H12" t="n">
-        <v>114.5683260468568</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I12" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J12" t="n">
-        <v>189.2383039390115</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K12" t="n">
-        <v>427.5025029193584</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L12" t="n">
-        <v>794.200663232024</v>
+        <v>794.2006632320245</v>
       </c>
       <c r="M12" t="n">
         <v>1241.47698845434</v>
@@ -5173,22 +5173,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>95.56103444839442</v>
+        <v>399.0634049978496</v>
       </c>
       <c r="C13" t="n">
-        <v>95.56103444839442</v>
+        <v>399.0634049978496</v>
       </c>
       <c r="D13" t="n">
-        <v>95.56103444839442</v>
+        <v>399.0634049978496</v>
       </c>
       <c r="E13" t="n">
-        <v>95.56103444839442</v>
+        <v>399.0634049978496</v>
       </c>
       <c r="F13" t="n">
-        <v>95.56103444839442</v>
+        <v>399.0634049978496</v>
       </c>
       <c r="G13" t="n">
-        <v>95.56103444839442</v>
+        <v>231.3605683725686</v>
       </c>
       <c r="H13" t="n">
         <v>95.56103444839442</v>
@@ -5200,7 +5200,7 @@
         <v>140.68366689533</v>
       </c>
       <c r="K13" t="n">
-        <v>344.6708498442064</v>
+        <v>344.6708498442063</v>
       </c>
       <c r="L13" t="n">
         <v>661.2306482927024</v>
@@ -5218,31 +5218,31 @@
         <v>1878.733169952189</v>
       </c>
       <c r="Q13" t="n">
-        <v>1956.343466104704</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="R13" t="n">
-        <v>1956.343466104704</v>
+        <v>1866.513008862231</v>
       </c>
       <c r="S13" t="n">
-        <v>1764.65758193153</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="T13" t="n">
-        <v>1542.890966501056</v>
+        <v>1453.060509258584</v>
       </c>
       <c r="U13" t="n">
-        <v>1253.788099626699</v>
+        <v>1163.957642384227</v>
       </c>
       <c r="V13" t="n">
-        <v>999.1036114208126</v>
+        <v>909.2731541783404</v>
       </c>
       <c r="W13" t="n">
-        <v>709.6864413838521</v>
+        <v>619.8559841413797</v>
       </c>
       <c r="X13" t="n">
-        <v>481.6968904858344</v>
+        <v>619.8559841413797</v>
       </c>
       <c r="Y13" t="n">
-        <v>260.9043113423043</v>
+        <v>399.0634049978496</v>
       </c>
     </row>
     <row r="14">
@@ -5255,7 +5255,7 @@
         <v>2374.216356690176</v>
       </c>
       <c r="C14" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D14" t="n">
         <v>1646.988141143014</v>
@@ -5279,19 +5279,19 @@
         <v>451.8458144277729</v>
       </c>
       <c r="K14" t="n">
-        <v>785.6651881176194</v>
+        <v>1106.569146563073</v>
       </c>
       <c r="L14" t="n">
-        <v>1236.699401366028</v>
+        <v>1732.058578925876</v>
       </c>
       <c r="M14" t="n">
-        <v>2151.197749519704</v>
+        <v>2265.590483597801</v>
       </c>
       <c r="N14" t="n">
-        <v>3130.950021746351</v>
+        <v>2812.369300656583</v>
       </c>
       <c r="O14" t="n">
-        <v>4010.914672075805</v>
+        <v>3692.333950986038</v>
       </c>
       <c r="P14" t="n">
         <v>4405.689038432984</v>
@@ -5331,22 +5331,22 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>970.5927724973196</v>
+        <v>970.5927724973194</v>
       </c>
       <c r="C15" t="n">
-        <v>796.1397432161926</v>
+        <v>796.1397432161924</v>
       </c>
       <c r="D15" t="n">
-        <v>647.2053335549414</v>
+        <v>647.2053335549413</v>
       </c>
       <c r="E15" t="n">
-        <v>487.9678785494859</v>
+        <v>487.9678785494857</v>
       </c>
       <c r="F15" t="n">
-        <v>341.4333205763709</v>
+        <v>341.4333205763708</v>
       </c>
       <c r="G15" t="n">
-        <v>205.070220408989</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H15" t="n">
         <v>114.5683260468565</v>
@@ -5361,7 +5361,7 @@
         <v>427.5025029193589</v>
       </c>
       <c r="L15" t="n">
-        <v>794.2006632320242</v>
+        <v>794.200663232024</v>
       </c>
       <c r="M15" t="n">
         <v>1241.47698845434</v>
@@ -5397,10 +5397,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X15" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y15" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="16">
@@ -5410,19 +5410,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>729.2066409118287</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="C16" t="n">
-        <v>560.2704579839217</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="D16" t="n">
-        <v>410.1538185715859</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="E16" t="n">
-        <v>410.1538185715859</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F16" t="n">
-        <v>263.2638710736755</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G16" t="n">
         <v>95.56103444839442</v>
@@ -5434,7 +5434,7 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J16" t="n">
-        <v>140.6836668953299</v>
+        <v>140.68366689533</v>
       </c>
       <c r="K16" t="n">
         <v>344.6708498442063</v>
@@ -5449,37 +5449,37 @@
         <v>1346.796070598116</v>
       </c>
       <c r="O16" t="n">
-        <v>1646.12566951853</v>
+        <v>1646.125669518529</v>
       </c>
       <c r="P16" t="n">
         <v>1878.733169952189</v>
       </c>
       <c r="Q16" t="n">
-        <v>1956.343466104704</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="R16" t="n">
-        <v>1866.513008862232</v>
+        <v>1866.513008862231</v>
       </c>
       <c r="S16" t="n">
         <v>1674.827124689058</v>
       </c>
       <c r="T16" t="n">
-        <v>1674.827124689058</v>
+        <v>1453.060509258584</v>
       </c>
       <c r="U16" t="n">
-        <v>1385.724257814701</v>
+        <v>1163.957642384227</v>
       </c>
       <c r="V16" t="n">
-        <v>1385.724257814701</v>
+        <v>909.2731541783404</v>
       </c>
       <c r="W16" t="n">
-        <v>1138.844656640086</v>
+        <v>619.8559841413796</v>
       </c>
       <c r="X16" t="n">
-        <v>910.8551057420684</v>
+        <v>391.8664332433623</v>
       </c>
       <c r="Y16" t="n">
-        <v>910.8551057420684</v>
+        <v>171.0738540998322</v>
       </c>
     </row>
     <row r="17">
@@ -5495,16 +5495,16 @@
         <v>2005.253839749765</v>
       </c>
       <c r="D17" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143015</v>
       </c>
       <c r="E17" t="n">
-        <v>1261.19988854477</v>
+        <v>1261.199888544771</v>
       </c>
       <c r="F17" t="n">
-        <v>850.2139837551624</v>
+        <v>850.2139837551626</v>
       </c>
       <c r="G17" t="n">
-        <v>435.1415336001589</v>
+        <v>435.1415336001592</v>
       </c>
       <c r="H17" t="n">
         <v>137.5579332089257</v>
@@ -5513,28 +5513,28 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J17" t="n">
-        <v>451.8458144277729</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K17" t="n">
-        <v>785.6651881176194</v>
+        <v>806.161341878638</v>
       </c>
       <c r="L17" t="n">
-        <v>1236.699401366028</v>
+        <v>1670.680157531993</v>
       </c>
       <c r="M17" t="n">
-        <v>2215.249704195857</v>
+        <v>2649.230460361821</v>
       </c>
       <c r="N17" t="n">
-        <v>2762.028521254639</v>
+        <v>3196.009277420604</v>
       </c>
       <c r="O17" t="n">
-        <v>3641.993171584094</v>
+        <v>4075.973927750058</v>
       </c>
       <c r="P17" t="n">
-        <v>4195.497197679678</v>
+        <v>4470.748294107237</v>
       </c>
       <c r="Q17" t="n">
-        <v>4653.975400188666</v>
+        <v>4719.034655862919</v>
       </c>
       <c r="R17" t="n">
         <v>4778.051722419721</v>
@@ -5568,25 +5568,25 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>970.5927724973189</v>
+        <v>970.5927724973196</v>
       </c>
       <c r="C18" t="n">
-        <v>796.139743216192</v>
+        <v>796.1397432161926</v>
       </c>
       <c r="D18" t="n">
-        <v>647.2053335549408</v>
+        <v>647.2053335549414</v>
       </c>
       <c r="E18" t="n">
-        <v>487.9678785494852</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F18" t="n">
-        <v>341.4333205763703</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G18" t="n">
-        <v>205.0702204089888</v>
+        <v>205.070220408989</v>
       </c>
       <c r="H18" t="n">
-        <v>114.5683260468563</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I18" t="n">
         <v>95.56103444839442</v>
@@ -5598,7 +5598,7 @@
         <v>427.5025029193589</v>
       </c>
       <c r="L18" t="n">
-        <v>794.2006632320243</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M18" t="n">
         <v>1241.47698845434</v>
@@ -5610,22 +5610,22 @@
         <v>2125.96131142685</v>
       </c>
       <c r="P18" t="n">
-        <v>2436.460902902952</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q18" t="n">
         <v>2594.102460549552</v>
       </c>
       <c r="R18" t="n">
-        <v>2593.958107142067</v>
+        <v>2593.958107142068</v>
       </c>
       <c r="S18" t="n">
-        <v>2464.520220635547</v>
+        <v>2464.520220635548</v>
       </c>
       <c r="T18" t="n">
         <v>2271.877220313403</v>
       </c>
       <c r="U18" t="n">
-        <v>2043.809373447818</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V18" t="n">
         <v>1808.657265216076</v>
@@ -5634,10 +5634,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X18" t="n">
-        <v>1346.568408282341</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y18" t="n">
-        <v>1138.808109517387</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="19">
@@ -5647,22 +5647,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>559.3002584566051</v>
+        <v>558.6274977408367</v>
       </c>
       <c r="C19" t="n">
-        <v>390.3640755286981</v>
+        <v>389.6913148129298</v>
       </c>
       <c r="D19" t="n">
-        <v>390.364075528698</v>
+        <v>389.6913148129298</v>
       </c>
       <c r="E19" t="n">
-        <v>242.4509819463048</v>
+        <v>241.7782212305366</v>
       </c>
       <c r="F19" t="n">
-        <v>95.56103444839442</v>
+        <v>241.7782212305366</v>
       </c>
       <c r="G19" t="n">
-        <v>95.56103444839442</v>
+        <v>241.7782212305366</v>
       </c>
       <c r="H19" t="n">
         <v>95.56103444839442</v>
@@ -5671,13 +5671,13 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J19" t="n">
-        <v>140.6836668953299</v>
+        <v>140.68366689533</v>
       </c>
       <c r="K19" t="n">
-        <v>344.6708498442063</v>
+        <v>344.6708498442064</v>
       </c>
       <c r="L19" t="n">
-        <v>661.2306482927023</v>
+        <v>661.2306482927024</v>
       </c>
       <c r="M19" t="n">
         <v>1005.387693892251</v>
@@ -5689,7 +5689,7 @@
         <v>1646.125669518529</v>
       </c>
       <c r="P19" t="n">
-        <v>1878.733169952188</v>
+        <v>1878.733169952189</v>
       </c>
       <c r="Q19" t="n">
         <v>1956.343466104703</v>
@@ -5704,19 +5704,19 @@
         <v>1644.746393431757</v>
       </c>
       <c r="U19" t="n">
-        <v>1644.746393431757</v>
+        <v>1355.643526557401</v>
       </c>
       <c r="V19" t="n">
-        <v>1479.148023365353</v>
+        <v>1100.959038351514</v>
       </c>
       <c r="W19" t="n">
-        <v>1189.730853328392</v>
+        <v>811.5418683145535</v>
       </c>
       <c r="X19" t="n">
-        <v>961.741302430375</v>
+        <v>779.4200768843668</v>
       </c>
       <c r="Y19" t="n">
-        <v>740.9487232868448</v>
+        <v>558.6274977408367</v>
       </c>
     </row>
     <row r="20">
@@ -5726,76 +5726,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C20" t="n">
-        <v>2005.253839749765</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D20" t="n">
-        <v>1646.988141143015</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E20" t="n">
-        <v>1261.199888544771</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F20" t="n">
-        <v>850.2139837551626</v>
+        <v>850.213983755162</v>
       </c>
       <c r="G20" t="n">
-        <v>435.1415336001592</v>
+        <v>435.1415336001584</v>
       </c>
       <c r="H20" t="n">
         <v>137.5579332089257</v>
       </c>
       <c r="I20" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J20" t="n">
-        <v>451.8458144277729</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K20" t="n">
-        <v>1106.569146563073</v>
+        <v>939.1634975427194</v>
       </c>
       <c r="L20" t="n">
-        <v>1557.603359811481</v>
+        <v>1803.682313196074</v>
       </c>
       <c r="M20" t="n">
-        <v>2216.257005193957</v>
+        <v>2373.979363934262</v>
       </c>
       <c r="N20" t="n">
-        <v>3196.009277420604</v>
+        <v>2920.758180993044</v>
       </c>
       <c r="O20" t="n">
-        <v>4075.973927750058</v>
+        <v>3800.722831322499</v>
       </c>
       <c r="P20" t="n">
-        <v>4470.748294107237</v>
+        <v>4195.497197679677</v>
       </c>
       <c r="Q20" t="n">
-        <v>4719.034655862919</v>
+        <v>4653.975400188665</v>
       </c>
       <c r="R20" t="n">
-        <v>4778.051722419721</v>
+        <v>4778.05172241972</v>
       </c>
       <c r="S20" t="n">
-        <v>4667.761053946816</v>
+        <v>4667.761053946815</v>
       </c>
       <c r="T20" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331037</v>
       </c>
       <c r="U20" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V20" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261303</v>
       </c>
       <c r="W20" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X20" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730109</v>
       </c>
       <c r="Y20" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754297</v>
       </c>
     </row>
     <row r="21">
@@ -5805,28 +5805,28 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>970.5927724973197</v>
+        <v>970.5927724973195</v>
       </c>
       <c r="C21" t="n">
-        <v>796.1397432161928</v>
+        <v>796.1397432161925</v>
       </c>
       <c r="D21" t="n">
-        <v>647.2053335549415</v>
+        <v>647.2053335549413</v>
       </c>
       <c r="E21" t="n">
-        <v>487.9678785494859</v>
+        <v>487.9678785494858</v>
       </c>
       <c r="F21" t="n">
-        <v>341.4333205763709</v>
+        <v>341.4333205763708</v>
       </c>
       <c r="G21" t="n">
         <v>205.0702204089889</v>
       </c>
       <c r="H21" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468564</v>
       </c>
       <c r="I21" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J21" t="n">
         <v>189.2383039390118</v>
@@ -5862,7 +5862,7 @@
         <v>2271.877220313403</v>
       </c>
       <c r="U21" t="n">
-        <v>2043.809373447819</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V21" t="n">
         <v>1808.657265216076</v>
@@ -5871,10 +5871,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X21" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y21" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="22">
@@ -5884,37 +5884,37 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>562.5269503710304</v>
+        <v>171.0738540998324</v>
       </c>
       <c r="C22" t="n">
-        <v>393.5907674431234</v>
+        <v>171.0738540998324</v>
       </c>
       <c r="D22" t="n">
-        <v>243.4741280307876</v>
+        <v>171.0738540998324</v>
       </c>
       <c r="E22" t="n">
-        <v>95.56103444839442</v>
+        <v>171.0738540998324</v>
       </c>
       <c r="F22" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="G22" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="H22" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="I22" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J22" t="n">
-        <v>140.6836668953299</v>
+        <v>140.68366689533</v>
       </c>
       <c r="K22" t="n">
-        <v>344.6708498442063</v>
+        <v>344.6708498442064</v>
       </c>
       <c r="L22" t="n">
-        <v>661.2306482927022</v>
+        <v>661.2306482927024</v>
       </c>
       <c r="M22" t="n">
         <v>1005.387693892251</v>
@@ -5923,7 +5923,7 @@
         <v>1346.796070598116</v>
       </c>
       <c r="O22" t="n">
-        <v>1646.125669518529</v>
+        <v>1646.12566951853</v>
       </c>
       <c r="P22" t="n">
         <v>1878.733169952189</v>
@@ -5932,28 +5932,28 @@
         <v>1956.343466104703</v>
       </c>
       <c r="R22" t="n">
-        <v>1956.343466104703</v>
+        <v>1866.513008862231</v>
       </c>
       <c r="S22" t="n">
-        <v>1956.343466104703</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="T22" t="n">
-        <v>1956.343466104703</v>
+        <v>1453.060509258584</v>
       </c>
       <c r="U22" t="n">
-        <v>1667.240599230347</v>
+        <v>1163.957642384227</v>
       </c>
       <c r="V22" t="n">
-        <v>1412.55611102446</v>
+        <v>909.2731541783404</v>
       </c>
       <c r="W22" t="n">
-        <v>1192.957545242818</v>
+        <v>619.8559841413798</v>
       </c>
       <c r="X22" t="n">
-        <v>964.9679943448001</v>
+        <v>391.8664332433625</v>
       </c>
       <c r="Y22" t="n">
-        <v>744.17541520127</v>
+        <v>171.0738540998324</v>
       </c>
     </row>
     <row r="23">
@@ -5981,34 +5981,34 @@
         <v>435.1415336001592</v>
       </c>
       <c r="H23" t="n">
-        <v>137.5579332089257</v>
+        <v>137.5579332089264</v>
       </c>
       <c r="I23" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J23" t="n">
-        <v>284.4401654074198</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K23" t="n">
-        <v>939.1634975427194</v>
+        <v>1106.569146563073</v>
       </c>
       <c r="L23" t="n">
-        <v>1390.197710791128</v>
+        <v>1557.603359811481</v>
       </c>
       <c r="M23" t="n">
-        <v>2368.748013620957</v>
+        <v>2432.390822294613</v>
       </c>
       <c r="N23" t="n">
-        <v>2915.526830679739</v>
+        <v>2979.169639353395</v>
       </c>
       <c r="O23" t="n">
-        <v>3547.201365906985</v>
+        <v>3482.142110232732</v>
       </c>
       <c r="P23" t="n">
-        <v>4260.556453353931</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q23" t="n">
-        <v>4719.034655862919</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R23" t="n">
         <v>4778.051722419721</v>
@@ -6042,43 +6042,43 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>970.5927724973197</v>
+        <v>970.5927724973203</v>
       </c>
       <c r="C24" t="n">
-        <v>796.1397432161928</v>
+        <v>796.1397432161933</v>
       </c>
       <c r="D24" t="n">
-        <v>647.2053335549415</v>
+        <v>647.2053335549422</v>
       </c>
       <c r="E24" t="n">
-        <v>487.9678785494859</v>
+        <v>487.9678785494866</v>
       </c>
       <c r="F24" t="n">
-        <v>341.4333205763709</v>
+        <v>341.4333205763717</v>
       </c>
       <c r="G24" t="n">
-        <v>205.0702204089889</v>
+        <v>205.0702204089899</v>
       </c>
       <c r="H24" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468568</v>
       </c>
       <c r="I24" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J24" t="n">
-        <v>189.2383039390118</v>
+        <v>189.238303939012</v>
       </c>
       <c r="K24" t="n">
-        <v>427.5025029193589</v>
+        <v>427.5025029193594</v>
       </c>
       <c r="L24" t="n">
-        <v>794.2006632320243</v>
+        <v>794.2006632320249</v>
       </c>
       <c r="M24" t="n">
-        <v>1241.47698845434</v>
+        <v>1241.476988454341</v>
       </c>
       <c r="N24" t="n">
-        <v>1715.000032008795</v>
+        <v>1715.000032008796</v>
       </c>
       <c r="O24" t="n">
         <v>2125.96131142685</v>
@@ -6087,7 +6087,7 @@
         <v>2436.460902902953</v>
       </c>
       <c r="Q24" t="n">
-        <v>2594.102460549552</v>
+        <v>2594.102460549553</v>
       </c>
       <c r="R24" t="n">
         <v>2593.958107142068</v>
@@ -6096,16 +6096,16 @@
         <v>2464.520220635548</v>
       </c>
       <c r="T24" t="n">
-        <v>2271.877220313403</v>
+        <v>2271.877220313404</v>
       </c>
       <c r="U24" t="n">
-        <v>2043.809373447819</v>
+        <v>2043.80937344782</v>
       </c>
       <c r="V24" t="n">
-        <v>1808.657265216076</v>
+        <v>1808.657265216077</v>
       </c>
       <c r="W24" t="n">
-        <v>1554.419908487874</v>
+        <v>1554.419908487875</v>
       </c>
       <c r="X24" t="n">
         <v>1346.568408282342</v>
@@ -6121,16 +6121,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>529.0120128405555</v>
+        <v>278.5282561439494</v>
       </c>
       <c r="C25" t="n">
-        <v>390.364075528698</v>
+        <v>243.4741280307875</v>
       </c>
       <c r="D25" t="n">
-        <v>390.364075528698</v>
+        <v>243.4741280307875</v>
       </c>
       <c r="E25" t="n">
-        <v>242.4509819463048</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F25" t="n">
         <v>95.56103444839442</v>
@@ -6145,22 +6145,22 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J25" t="n">
-        <v>140.6836668953299</v>
+        <v>140.68366689533</v>
       </c>
       <c r="K25" t="n">
         <v>344.6708498442064</v>
       </c>
       <c r="L25" t="n">
-        <v>661.2306482927024</v>
+        <v>661.2306482927027</v>
       </c>
       <c r="M25" t="n">
-        <v>1005.387693892251</v>
+        <v>1005.387693892252</v>
       </c>
       <c r="N25" t="n">
         <v>1346.796070598116</v>
       </c>
       <c r="O25" t="n">
-        <v>1646.12566951853</v>
+        <v>1646.125669518529</v>
       </c>
       <c r="P25" t="n">
         <v>1878.733169952189</v>
@@ -6169,28 +6169,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R25" t="n">
-        <v>1956.343466104704</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="S25" t="n">
-        <v>1764.65758193153</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="T25" t="n">
-        <v>1764.65758193153</v>
+        <v>1453.060509258584</v>
       </c>
       <c r="U25" t="n">
-        <v>1475.554715057173</v>
+        <v>1453.060509258584</v>
       </c>
       <c r="V25" t="n">
-        <v>1220.870226851286</v>
+        <v>1198.376021052697</v>
       </c>
       <c r="W25" t="n">
-        <v>931.4530568143255</v>
+        <v>908.9588510157366</v>
       </c>
       <c r="X25" t="n">
-        <v>931.4530568143254</v>
+        <v>680.9693001177193</v>
       </c>
       <c r="Y25" t="n">
-        <v>710.6604776707952</v>
+        <v>460.1767209741892</v>
       </c>
     </row>
     <row r="26">
@@ -6200,19 +6200,19 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2374.216356690177</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C26" t="n">
-        <v>2005.253839749765</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D26" t="n">
         <v>1646.988141143014</v>
       </c>
       <c r="E26" t="n">
-        <v>1261.19988854477</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F26" t="n">
-        <v>850.2139837551626</v>
+        <v>850.213983755162</v>
       </c>
       <c r="G26" t="n">
         <v>435.1415336001584</v>
@@ -6224,19 +6224,19 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J26" t="n">
-        <v>284.4401654074198</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K26" t="n">
-        <v>939.1634975427194</v>
+        <v>785.6651881176194</v>
       </c>
       <c r="L26" t="n">
-        <v>1803.682313196074</v>
+        <v>1236.699401366028</v>
       </c>
       <c r="M26" t="n">
-        <v>2337.214217867999</v>
+        <v>1897.67628410419</v>
       </c>
       <c r="N26" t="n">
-        <v>2883.993034926781</v>
+        <v>2877.428556330836</v>
       </c>
       <c r="O26" t="n">
         <v>3757.393206660291</v>
@@ -6254,22 +6254,22 @@
         <v>4667.761053946816</v>
       </c>
       <c r="T26" t="n">
-        <v>4461.783306331039</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U26" t="n">
-        <v>4208.252829604876</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V26" t="n">
-        <v>3877.189942261305</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W26" t="n">
-        <v>3524.421286991191</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X26" t="n">
-        <v>3150.955528730111</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y26" t="n">
-        <v>2760.816196754299</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="27">
@@ -6279,64 +6279,64 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>970.5927724973197</v>
+        <v>970.5927724973189</v>
       </c>
       <c r="C27" t="n">
-        <v>796.1397432161928</v>
+        <v>796.139743216192</v>
       </c>
       <c r="D27" t="n">
-        <v>647.2053335549415</v>
+        <v>647.2053335549408</v>
       </c>
       <c r="E27" t="n">
-        <v>487.9678785494859</v>
+        <v>487.9678785494852</v>
       </c>
       <c r="F27" t="n">
-        <v>341.4333205763709</v>
+        <v>341.4333205763703</v>
       </c>
       <c r="G27" t="n">
         <v>205.0702204089889</v>
       </c>
       <c r="H27" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468564</v>
       </c>
       <c r="I27" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J27" t="n">
-        <v>189.2383039390118</v>
+        <v>189.238303939012</v>
       </c>
       <c r="K27" t="n">
-        <v>427.5025029193589</v>
+        <v>427.502502919359</v>
       </c>
       <c r="L27" t="n">
-        <v>794.2006632320242</v>
+        <v>794.200663232024</v>
       </c>
       <c r="M27" t="n">
         <v>1241.47698845434</v>
       </c>
       <c r="N27" t="n">
-        <v>1715.000032008795</v>
+        <v>1715.000032008794</v>
       </c>
       <c r="O27" t="n">
-        <v>2125.96131142685</v>
+        <v>2125.961311426849</v>
       </c>
       <c r="P27" t="n">
-        <v>2436.460902902953</v>
+        <v>2436.460902902952</v>
       </c>
       <c r="Q27" t="n">
         <v>2594.102460549552</v>
       </c>
       <c r="R27" t="n">
-        <v>2593.958107142068</v>
+        <v>2593.958107142067</v>
       </c>
       <c r="S27" t="n">
-        <v>2464.520220635548</v>
+        <v>2464.520220635547</v>
       </c>
       <c r="T27" t="n">
         <v>2271.877220313403</v>
       </c>
       <c r="U27" t="n">
-        <v>2043.809373447819</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V27" t="n">
         <v>1808.657265216076</v>
@@ -6345,10 +6345,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X27" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y27" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="28">
@@ -6358,19 +6358,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>432.2000540015821</v>
+        <v>414.6138567886371</v>
       </c>
       <c r="C28" t="n">
-        <v>263.2638710736754</v>
+        <v>245.6776738607302</v>
       </c>
       <c r="D28" t="n">
-        <v>263.2638710736754</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="E28" t="n">
-        <v>263.2638710736754</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F28" t="n">
-        <v>263.2638710736754</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G28" t="n">
         <v>95.56103444839442</v>
@@ -6385,19 +6385,19 @@
         <v>140.68366689533</v>
       </c>
       <c r="K28" t="n">
-        <v>344.6708498442063</v>
+        <v>344.6708498442064</v>
       </c>
       <c r="L28" t="n">
-        <v>661.2306482927024</v>
+        <v>661.2306482927027</v>
       </c>
       <c r="M28" t="n">
-        <v>1005.387693892251</v>
+        <v>1005.387693892252</v>
       </c>
       <c r="N28" t="n">
         <v>1346.796070598116</v>
       </c>
       <c r="O28" t="n">
-        <v>1646.125669518529</v>
+        <v>1646.12566951853</v>
       </c>
       <c r="P28" t="n">
         <v>1878.733169952189</v>
@@ -6406,28 +6406,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R28" t="n">
-        <v>1866.513008862231</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="S28" t="n">
-        <v>1866.513008862231</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="T28" t="n">
-        <v>1866.513008862231</v>
+        <v>1453.060509258584</v>
       </c>
       <c r="U28" t="n">
-        <v>1577.410141987875</v>
+        <v>1163.957642384227</v>
       </c>
       <c r="V28" t="n">
-        <v>1322.725653781988</v>
+        <v>909.2731541783406</v>
       </c>
       <c r="W28" t="n">
-        <v>1033.308483745027</v>
+        <v>909.2731541783406</v>
       </c>
       <c r="X28" t="n">
-        <v>805.31893284701</v>
+        <v>681.2836032803233</v>
       </c>
       <c r="Y28" t="n">
-        <v>613.8485188318218</v>
+        <v>460.4910241367932</v>
       </c>
     </row>
     <row r="29">
@@ -6437,22 +6437,22 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C29" t="n">
-        <v>2005.253839749765</v>
+        <v>2005.253839749763</v>
       </c>
       <c r="D29" t="n">
-        <v>1646.988141143015</v>
+        <v>1646.988141143013</v>
       </c>
       <c r="E29" t="n">
-        <v>1261.199888544771</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F29" t="n">
-        <v>850.2139837551626</v>
+        <v>850.2139837551613</v>
       </c>
       <c r="G29" t="n">
-        <v>435.1415336001592</v>
+        <v>435.1415336001587</v>
       </c>
       <c r="H29" t="n">
         <v>137.5579332089257</v>
@@ -6467,19 +6467,19 @@
         <v>618.2595390972663</v>
       </c>
       <c r="L29" t="n">
-        <v>1482.778354750621</v>
+        <v>1069.293752345675</v>
       </c>
       <c r="M29" t="n">
-        <v>2016.310259422546</v>
+        <v>1622.425187676631</v>
       </c>
       <c r="N29" t="n">
-        <v>2996.062531649192</v>
+        <v>2602.177459903277</v>
       </c>
       <c r="O29" t="n">
-        <v>3876.027181978647</v>
+        <v>3482.142110232732</v>
       </c>
       <c r="P29" t="n">
-        <v>4405.689038432984</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q29" t="n">
         <v>4653.975400188666</v>
@@ -6488,25 +6488,25 @@
         <v>4778.051722419721</v>
       </c>
       <c r="S29" t="n">
-        <v>4667.761053946816</v>
+        <v>4667.761053946815</v>
       </c>
       <c r="T29" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331037</v>
       </c>
       <c r="U29" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604873</v>
       </c>
       <c r="V29" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261302</v>
       </c>
       <c r="W29" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991188</v>
       </c>
       <c r="X29" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730108</v>
       </c>
       <c r="Y29" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754296</v>
       </c>
     </row>
     <row r="30">
@@ -6516,64 +6516,64 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>970.5927724973197</v>
+        <v>970.5927724973189</v>
       </c>
       <c r="C30" t="n">
-        <v>796.1397432161928</v>
+        <v>796.139743216192</v>
       </c>
       <c r="D30" t="n">
-        <v>647.2053335549415</v>
+        <v>647.2053335549408</v>
       </c>
       <c r="E30" t="n">
-        <v>487.9678785494859</v>
+        <v>487.9678785494852</v>
       </c>
       <c r="F30" t="n">
-        <v>341.4333205763709</v>
+        <v>341.4333205763703</v>
       </c>
       <c r="G30" t="n">
         <v>205.0702204089889</v>
       </c>
       <c r="H30" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468564</v>
       </c>
       <c r="I30" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J30" t="n">
-        <v>189.2383039390118</v>
+        <v>189.238303939012</v>
       </c>
       <c r="K30" t="n">
-        <v>427.5025029193589</v>
+        <v>427.502502919359</v>
       </c>
       <c r="L30" t="n">
-        <v>794.2006632320242</v>
+        <v>794.200663232024</v>
       </c>
       <c r="M30" t="n">
         <v>1241.47698845434</v>
       </c>
       <c r="N30" t="n">
-        <v>1715.000032008795</v>
+        <v>1715.000032008794</v>
       </c>
       <c r="O30" t="n">
-        <v>2125.96131142685</v>
+        <v>2125.961311426849</v>
       </c>
       <c r="P30" t="n">
-        <v>2436.460902902953</v>
+        <v>2436.460902902952</v>
       </c>
       <c r="Q30" t="n">
         <v>2594.102460549552</v>
       </c>
       <c r="R30" t="n">
-        <v>2593.958107142068</v>
+        <v>2593.958107142067</v>
       </c>
       <c r="S30" t="n">
-        <v>2464.520220635548</v>
+        <v>2464.520220635547</v>
       </c>
       <c r="T30" t="n">
         <v>2271.877220313403</v>
       </c>
       <c r="U30" t="n">
-        <v>2043.809373447819</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V30" t="n">
         <v>1808.657265216076</v>
@@ -6582,10 +6582,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X30" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y30" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="31">
@@ -6595,25 +6595,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>562.5269503710301</v>
+        <v>506.8321102045707</v>
       </c>
       <c r="C31" t="n">
-        <v>393.5907674431232</v>
+        <v>506.8321102045707</v>
       </c>
       <c r="D31" t="n">
-        <v>243.4741280307875</v>
+        <v>506.8321102045707</v>
       </c>
       <c r="E31" t="n">
-        <v>95.56103444839442</v>
+        <v>506.8321102045707</v>
       </c>
       <c r="F31" t="n">
-        <v>95.56103444839442</v>
+        <v>359.9421627066603</v>
       </c>
       <c r="G31" t="n">
-        <v>95.56103444839442</v>
+        <v>192.8867116300491</v>
       </c>
       <c r="H31" t="n">
-        <v>95.56103444839442</v>
+        <v>192.8867116300491</v>
       </c>
       <c r="I31" t="n">
         <v>95.56103444839442</v>
@@ -6640,31 +6640,31 @@
         <v>1878.733169952189</v>
       </c>
       <c r="Q31" t="n">
-        <v>1956.343466104704</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="R31" t="n">
-        <v>1956.343466104704</v>
+        <v>1866.513008862231</v>
       </c>
       <c r="S31" t="n">
-        <v>1956.343466104704</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="T31" t="n">
-        <v>1736.74490032306</v>
+        <v>1453.060509258584</v>
       </c>
       <c r="U31" t="n">
-        <v>1447.642033448704</v>
+        <v>1163.957642384227</v>
       </c>
       <c r="V31" t="n">
-        <v>1192.957545242817</v>
+        <v>909.2731541783405</v>
       </c>
       <c r="W31" t="n">
-        <v>1192.957545242817</v>
+        <v>909.2731541783405</v>
       </c>
       <c r="X31" t="n">
-        <v>964.9679943447998</v>
+        <v>909.2731541783405</v>
       </c>
       <c r="Y31" t="n">
-        <v>744.1754152012699</v>
+        <v>688.4805750348104</v>
       </c>
     </row>
     <row r="32">
@@ -6689,7 +6689,7 @@
         <v>850.2139837551626</v>
       </c>
       <c r="G32" t="n">
-        <v>435.1415336001592</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H32" t="n">
         <v>137.5579332089257</v>
@@ -6698,28 +6698,28 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J32" t="n">
-        <v>284.4401654074198</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K32" t="n">
-        <v>618.2595390972663</v>
+        <v>785.6651881176194</v>
       </c>
       <c r="L32" t="n">
-        <v>1088.893283004706</v>
+        <v>1236.699401366028</v>
       </c>
       <c r="M32" t="n">
-        <v>1622.425187676631</v>
+        <v>1770.231306037953</v>
       </c>
       <c r="N32" t="n">
-        <v>2602.177459903277</v>
+        <v>2749.9835782646</v>
       </c>
       <c r="O32" t="n">
-        <v>3482.142110232732</v>
+        <v>3629.948228594054</v>
       </c>
       <c r="P32" t="n">
-        <v>4195.497197679678</v>
+        <v>4260.556453353931</v>
       </c>
       <c r="Q32" t="n">
-        <v>4653.975400188666</v>
+        <v>4719.034655862919</v>
       </c>
       <c r="R32" t="n">
         <v>4778.051722419721</v>
@@ -6753,19 +6753,19 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>970.5927724973197</v>
+        <v>970.5927724973199</v>
       </c>
       <c r="C33" t="n">
-        <v>796.1397432161928</v>
+        <v>796.1397432161929</v>
       </c>
       <c r="D33" t="n">
-        <v>647.2053335549415</v>
+        <v>647.2053335549417</v>
       </c>
       <c r="E33" t="n">
-        <v>487.9678785494859</v>
+        <v>487.9678785494862</v>
       </c>
       <c r="F33" t="n">
-        <v>341.4333205763709</v>
+        <v>341.4333205763712</v>
       </c>
       <c r="G33" t="n">
         <v>205.0702204089889</v>
@@ -6777,13 +6777,13 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J33" t="n">
-        <v>189.2383039390118</v>
+        <v>189.238303939012</v>
       </c>
       <c r="K33" t="n">
-        <v>427.5025029193589</v>
+        <v>427.5025029193591</v>
       </c>
       <c r="L33" t="n">
-        <v>794.2006632320243</v>
+        <v>794.2006632320245</v>
       </c>
       <c r="M33" t="n">
         <v>1241.47698845434</v>
@@ -6798,7 +6798,7 @@
         <v>2436.460902902953</v>
       </c>
       <c r="Q33" t="n">
-        <v>2594.102460549552</v>
+        <v>2594.102460549553</v>
       </c>
       <c r="R33" t="n">
         <v>2593.958107142068</v>
@@ -6807,7 +6807,7 @@
         <v>2464.520220635548</v>
       </c>
       <c r="T33" t="n">
-        <v>2271.877220313403</v>
+        <v>2271.877220313404</v>
       </c>
       <c r="U33" t="n">
         <v>2043.809373447819</v>
@@ -6816,7 +6816,7 @@
         <v>1808.657265216076</v>
       </c>
       <c r="W33" t="n">
-        <v>1554.419908487874</v>
+        <v>1554.419908487875</v>
       </c>
       <c r="X33" t="n">
         <v>1346.568408282342</v>
@@ -6832,43 +6832,43 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>615.4971282939408</v>
+        <v>472.4728289383113</v>
       </c>
       <c r="C34" t="n">
-        <v>475.2441100416265</v>
+        <v>472.4728289383113</v>
       </c>
       <c r="D34" t="n">
-        <v>353.8106353048834</v>
+        <v>351.0393542015681</v>
       </c>
       <c r="E34" t="n">
-        <v>234.5807063980829</v>
+        <v>351.0393542015681</v>
       </c>
       <c r="F34" t="n">
-        <v>234.5807063980829</v>
+        <v>351.0393542015681</v>
       </c>
       <c r="G34" t="n">
-        <v>95.56103444839442</v>
+        <v>281.7375690610062</v>
       </c>
       <c r="H34" t="n">
-        <v>95.56103444839442</v>
+        <v>164.2035469544565</v>
       </c>
       <c r="I34" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J34" t="n">
-        <v>168.7960365938783</v>
+        <v>168.7960365938782</v>
       </c>
       <c r="K34" t="n">
-        <v>400.895589241303</v>
+        <v>400.8955892413028</v>
       </c>
       <c r="L34" t="n">
-        <v>745.5677573883474</v>
+        <v>745.5677573883472</v>
       </c>
       <c r="M34" t="n">
         <v>1117.837172686445</v>
       </c>
       <c r="N34" t="n">
-        <v>1487.357919090858</v>
+        <v>1487.357919090857</v>
       </c>
       <c r="O34" t="n">
         <v>1814.799887709819</v>
@@ -6877,31 +6877,31 @@
         <v>2075.519757842027</v>
       </c>
       <c r="Q34" t="n">
-        <v>2181.24242369309</v>
+        <v>2181.242423693089</v>
       </c>
       <c r="R34" t="n">
-        <v>2181.24242369309</v>
+        <v>2120.09513112621</v>
       </c>
       <c r="S34" t="n">
-        <v>2018.239704195509</v>
+        <v>1957.092411628629</v>
       </c>
       <c r="T34" t="n">
-        <v>1825.156253440628</v>
+        <v>1764.008960873747</v>
       </c>
       <c r="U34" t="n">
-        <v>1564.736551241864</v>
+        <v>1503.589258674983</v>
       </c>
       <c r="V34" t="n">
-        <v>1338.735227711569</v>
+        <v>1277.587935144689</v>
       </c>
       <c r="W34" t="n">
-        <v>1078.001222350201</v>
+        <v>1016.853929783321</v>
       </c>
       <c r="X34" t="n">
-        <v>878.6948361277765</v>
+        <v>817.547543560896</v>
       </c>
       <c r="Y34" t="n">
-        <v>768.4624284485878</v>
+        <v>625.4381290929584</v>
       </c>
     </row>
     <row r="35">
@@ -6914,16 +6914,16 @@
         <v>2374.216356690176</v>
       </c>
       <c r="C35" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D35" t="n">
         <v>1646.988141143014</v>
       </c>
       <c r="E35" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F35" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551624</v>
       </c>
       <c r="G35" t="n">
         <v>435.1415336001585</v>
@@ -6935,13 +6935,13 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J35" t="n">
-        <v>301.0727330329178</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K35" t="n">
-        <v>634.8921067227643</v>
+        <v>666.4259024757223</v>
       </c>
       <c r="L35" t="n">
-        <v>1085.926319971173</v>
+        <v>1530.944718129077</v>
       </c>
       <c r="M35" t="n">
         <v>2064.476622801002</v>
@@ -6962,19 +6962,19 @@
         <v>4778.051722419721</v>
       </c>
       <c r="S35" t="n">
-        <v>4667.761053946815</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T35" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U35" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V35" t="n">
         <v>3877.189942261304</v>
       </c>
       <c r="W35" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X35" t="n">
         <v>3150.95552873011</v>
@@ -6990,13 +6990,13 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>970.5927724973197</v>
+        <v>970.5927724973196</v>
       </c>
       <c r="C36" t="n">
-        <v>796.1397432161928</v>
+        <v>796.1397432161926</v>
       </c>
       <c r="D36" t="n">
-        <v>647.2053335549415</v>
+        <v>647.2053335549414</v>
       </c>
       <c r="E36" t="n">
         <v>487.9678785494859</v>
@@ -7005,7 +7005,7 @@
         <v>341.4333205763709</v>
       </c>
       <c r="G36" t="n">
-        <v>205.0702204089889</v>
+        <v>205.070220408989</v>
       </c>
       <c r="H36" t="n">
         <v>114.5683260468565</v>
@@ -7069,22 +7069,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>851.2379332228081</v>
+        <v>472.4728289383117</v>
       </c>
       <c r="C37" t="n">
-        <v>710.9849149704938</v>
+        <v>332.2198106859973</v>
       </c>
       <c r="D37" t="n">
-        <v>589.5514402337508</v>
+        <v>332.2198106859973</v>
       </c>
       <c r="E37" t="n">
-        <v>470.3215113269503</v>
+        <v>212.9898817791965</v>
       </c>
       <c r="F37" t="n">
-        <v>352.1147285046325</v>
+        <v>212.9898817791965</v>
       </c>
       <c r="G37" t="n">
-        <v>213.095056554944</v>
+        <v>212.9898817791965</v>
       </c>
       <c r="H37" t="n">
         <v>95.56103444839442</v>
@@ -7093,19 +7093,19 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J37" t="n">
-        <v>168.7960365938783</v>
+        <v>168.7960365938782</v>
       </c>
       <c r="K37" t="n">
-        <v>400.895589241303</v>
+        <v>400.8955892413029</v>
       </c>
       <c r="L37" t="n">
-        <v>745.5677573883474</v>
+        <v>745.5677573883472</v>
       </c>
       <c r="M37" t="n">
         <v>1117.837172686445</v>
       </c>
       <c r="N37" t="n">
-        <v>1487.357919090858</v>
+        <v>1487.357919090857</v>
       </c>
       <c r="O37" t="n">
         <v>1814.799887709819</v>
@@ -7117,28 +7117,28 @@
         <v>2181.24242369309</v>
       </c>
       <c r="R37" t="n">
-        <v>2181.24242369309</v>
+        <v>2120.09513112621</v>
       </c>
       <c r="S37" t="n">
-        <v>2142.774065158244</v>
+        <v>1957.092411628629</v>
       </c>
       <c r="T37" t="n">
-        <v>2142.774065158244</v>
+        <v>1764.008960873748</v>
       </c>
       <c r="U37" t="n">
-        <v>1882.35436295948</v>
+        <v>1503.589258674984</v>
       </c>
       <c r="V37" t="n">
-        <v>1656.353039429185</v>
+        <v>1277.587935144689</v>
       </c>
       <c r="W37" t="n">
-        <v>1395.619034067817</v>
+        <v>1016.853929783321</v>
       </c>
       <c r="X37" t="n">
-        <v>1196.312647845393</v>
+        <v>817.5475435608964</v>
       </c>
       <c r="Y37" t="n">
-        <v>1004.203233377455</v>
+        <v>625.4381290929589</v>
       </c>
     </row>
     <row r="38">
@@ -7154,16 +7154,16 @@
         <v>2005.253839749765</v>
       </c>
       <c r="D38" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143015</v>
       </c>
       <c r="E38" t="n">
-        <v>1261.19988854477</v>
+        <v>1261.199888544771</v>
       </c>
       <c r="F38" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551626</v>
       </c>
       <c r="G38" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001592</v>
       </c>
       <c r="H38" t="n">
         <v>137.5579332089257</v>
@@ -7172,28 +7172,28 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J38" t="n">
-        <v>284.4401654074198</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K38" t="n">
-        <v>939.1634975427194</v>
+        <v>1106.569146563073</v>
       </c>
       <c r="L38" t="n">
-        <v>1803.682313196074</v>
+        <v>1784.466183544591</v>
       </c>
       <c r="M38" t="n">
-        <v>2337.214217867999</v>
+        <v>2317.998088216516</v>
       </c>
       <c r="N38" t="n">
-        <v>3316.966490094645</v>
+        <v>3297.750360443163</v>
       </c>
       <c r="O38" t="n">
-        <v>3819.938960973982</v>
+        <v>3800.7228313225</v>
       </c>
       <c r="P38" t="n">
-        <v>4260.556453353931</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q38" t="n">
-        <v>4719.034655862919</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R38" t="n">
         <v>4778.051722419721</v>
@@ -7254,10 +7254,10 @@
         <v>189.2383039390118</v>
       </c>
       <c r="K39" t="n">
-        <v>427.5025029193589</v>
+        <v>427.502502919359</v>
       </c>
       <c r="L39" t="n">
-        <v>794.2006632320242</v>
+        <v>794.2006632320243</v>
       </c>
       <c r="M39" t="n">
         <v>1241.47698845434</v>
@@ -7306,43 +7306,43 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>663.3267516726321</v>
+        <v>472.4728289383118</v>
       </c>
       <c r="C40" t="n">
-        <v>523.0737334203178</v>
+        <v>356.0141811348261</v>
       </c>
       <c r="D40" t="n">
-        <v>401.6402586835747</v>
+        <v>234.5807063980829</v>
       </c>
       <c r="E40" t="n">
-        <v>282.4103297767742</v>
+        <v>234.5807063980829</v>
       </c>
       <c r="F40" t="n">
-        <v>164.2035469544564</v>
+        <v>234.5807063980829</v>
       </c>
       <c r="G40" t="n">
-        <v>164.2035469544564</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H40" t="n">
-        <v>164.2035469544564</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I40" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J40" t="n">
-        <v>168.7960365938783</v>
+        <v>168.7960365938782</v>
       </c>
       <c r="K40" t="n">
-        <v>400.895589241303</v>
+        <v>400.8955892413029</v>
       </c>
       <c r="L40" t="n">
-        <v>745.5677573883474</v>
+        <v>745.5677573883472</v>
       </c>
       <c r="M40" t="n">
-        <v>1117.837172686445</v>
+        <v>1117.837172686444</v>
       </c>
       <c r="N40" t="n">
-        <v>1487.357919090858</v>
+        <v>1487.357919090857</v>
       </c>
       <c r="O40" t="n">
         <v>1814.799887709819</v>
@@ -7354,28 +7354,28 @@
         <v>2181.24242369309</v>
       </c>
       <c r="R40" t="n">
-        <v>2120.095131126211</v>
+        <v>2120.09513112621</v>
       </c>
       <c r="S40" t="n">
-        <v>2120.095131126211</v>
+        <v>1957.092411628629</v>
       </c>
       <c r="T40" t="n">
-        <v>1927.011680371329</v>
+        <v>1764.008960873748</v>
       </c>
       <c r="U40" t="n">
-        <v>1666.591978172566</v>
+        <v>1503.589258674984</v>
       </c>
       <c r="V40" t="n">
-        <v>1440.590654642271</v>
+        <v>1277.587935144689</v>
       </c>
       <c r="W40" t="n">
-        <v>1179.856649280903</v>
+        <v>1016.853929783321</v>
       </c>
       <c r="X40" t="n">
-        <v>980.5502630584785</v>
+        <v>817.5475435608965</v>
       </c>
       <c r="Y40" t="n">
-        <v>788.440848590541</v>
+        <v>625.438129092959</v>
       </c>
     </row>
     <row r="41">
@@ -7385,22 +7385,22 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2374.216356690175</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C41" t="n">
-        <v>2005.253839749763</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D41" t="n">
-        <v>1646.988141143013</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E41" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F41" t="n">
-        <v>850.2139837551613</v>
+        <v>850.2139837551624</v>
       </c>
       <c r="G41" t="n">
-        <v>435.1415336001587</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H41" t="n">
         <v>137.5579332089257</v>
@@ -7409,52 +7409,52 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J41" t="n">
-        <v>284.4401654074198</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K41" t="n">
-        <v>876.6177432290281</v>
+        <v>1106.569146563073</v>
       </c>
       <c r="L41" t="n">
-        <v>1741.136558882383</v>
+        <v>1898.858917622688</v>
       </c>
       <c r="M41" t="n">
-        <v>2274.668463554307</v>
+        <v>2432.390822294613</v>
       </c>
       <c r="N41" t="n">
-        <v>3254.420735780954</v>
+        <v>2979.169639353395</v>
       </c>
       <c r="O41" t="n">
-        <v>3757.393206660291</v>
+        <v>3482.142110232732</v>
       </c>
       <c r="P41" t="n">
-        <v>4470.748294107237</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q41" t="n">
-        <v>4719.034655862919</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R41" t="n">
         <v>4778.051722419721</v>
       </c>
       <c r="S41" t="n">
-        <v>4667.761053946815</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T41" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U41" t="n">
-        <v>4208.252829604873</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V41" t="n">
-        <v>3877.189942261302</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W41" t="n">
-        <v>3524.421286991188</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X41" t="n">
-        <v>3150.955528730108</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y41" t="n">
-        <v>2760.816196754296</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="42">
@@ -7464,43 +7464,43 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>970.5927724973203</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C42" t="n">
-        <v>796.1397432161933</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D42" t="n">
-        <v>647.2053335549422</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E42" t="n">
-        <v>487.9678785494866</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F42" t="n">
-        <v>341.4333205763717</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G42" t="n">
-        <v>205.0702204089899</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H42" t="n">
-        <v>114.5683260468568</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I42" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J42" t="n">
-        <v>189.238303939012</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K42" t="n">
-        <v>427.5025029193594</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L42" t="n">
-        <v>794.2006632320249</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M42" t="n">
-        <v>1241.476988454341</v>
+        <v>1241.47698845434</v>
       </c>
       <c r="N42" t="n">
-        <v>1715.000032008796</v>
+        <v>1715.000032008795</v>
       </c>
       <c r="O42" t="n">
         <v>2125.96131142685</v>
@@ -7509,7 +7509,7 @@
         <v>2436.460902902953</v>
       </c>
       <c r="Q42" t="n">
-        <v>2594.102460549553</v>
+        <v>2594.102460549552</v>
       </c>
       <c r="R42" t="n">
         <v>2593.958107142068</v>
@@ -7518,16 +7518,16 @@
         <v>2464.520220635548</v>
       </c>
       <c r="T42" t="n">
-        <v>2271.877220313404</v>
+        <v>2271.877220313403</v>
       </c>
       <c r="U42" t="n">
-        <v>2043.80937344782</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V42" t="n">
-        <v>1808.657265216077</v>
+        <v>1808.657265216076</v>
       </c>
       <c r="W42" t="n">
-        <v>1554.419908487875</v>
+        <v>1554.419908487874</v>
       </c>
       <c r="X42" t="n">
         <v>1346.568408282342</v>
@@ -7543,22 +7543,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>851.2379332228082</v>
+        <v>472.4728289383115</v>
       </c>
       <c r="C43" t="n">
-        <v>710.9849149704939</v>
+        <v>332.2198106859971</v>
       </c>
       <c r="D43" t="n">
-        <v>589.5514402337508</v>
+        <v>210.7863359492538</v>
       </c>
       <c r="E43" t="n">
-        <v>470.3215113269503</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F43" t="n">
-        <v>352.1147285046325</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G43" t="n">
-        <v>213.0950565549441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H43" t="n">
         <v>95.56103444839442</v>
@@ -7567,52 +7567,52 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J43" t="n">
-        <v>168.7960365938783</v>
+        <v>168.7960365938782</v>
       </c>
       <c r="K43" t="n">
-        <v>400.895589241303</v>
+        <v>400.8955892413029</v>
       </c>
       <c r="L43" t="n">
-        <v>745.5677573883474</v>
+        <v>745.5677573883472</v>
       </c>
       <c r="M43" t="n">
-        <v>1117.837172686445</v>
+        <v>1117.837172686444</v>
       </c>
       <c r="N43" t="n">
-        <v>1487.357919090858</v>
+        <v>1487.357919090857</v>
       </c>
       <c r="O43" t="n">
         <v>1814.799887709819</v>
       </c>
       <c r="P43" t="n">
-        <v>2075.519757842027</v>
+        <v>2075.519757842026</v>
       </c>
       <c r="Q43" t="n">
-        <v>2181.24242369309</v>
+        <v>2181.242423693089</v>
       </c>
       <c r="R43" t="n">
-        <v>2181.24242369309</v>
+        <v>2120.09513112621</v>
       </c>
       <c r="S43" t="n">
-        <v>2142.774065158244</v>
+        <v>1957.092411628629</v>
       </c>
       <c r="T43" t="n">
-        <v>2142.774065158244</v>
+        <v>1764.008960873747</v>
       </c>
       <c r="U43" t="n">
-        <v>1882.35436295948</v>
+        <v>1503.589258674984</v>
       </c>
       <c r="V43" t="n">
-        <v>1656.353039429186</v>
+        <v>1277.587935144689</v>
       </c>
       <c r="W43" t="n">
-        <v>1395.619034067818</v>
+        <v>1016.853929783321</v>
       </c>
       <c r="X43" t="n">
-        <v>1196.312647845393</v>
+        <v>817.5475435608962</v>
       </c>
       <c r="Y43" t="n">
-        <v>1004.203233377455</v>
+        <v>625.4381290929587</v>
       </c>
     </row>
     <row r="44">
@@ -7622,52 +7622,52 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2374.216356690175</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C44" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D44" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143015</v>
       </c>
       <c r="E44" t="n">
-        <v>1261.19988854477</v>
+        <v>1261.199888544771</v>
       </c>
       <c r="F44" t="n">
-        <v>850.2139837551623</v>
+        <v>850.2139837551626</v>
       </c>
       <c r="G44" t="n">
-        <v>435.1415336001588</v>
+        <v>435.1415336001592</v>
       </c>
       <c r="H44" t="n">
-        <v>137.557933208926</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I44" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J44" t="n">
-        <v>284.4401654074192</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K44" t="n">
-        <v>907.9024249012062</v>
+        <v>618.2595390972663</v>
       </c>
       <c r="L44" t="n">
-        <v>1772.42124055456</v>
+        <v>1482.778354750621</v>
       </c>
       <c r="M44" t="n">
-        <v>2750.971543384387</v>
+        <v>2016.310259422546</v>
       </c>
       <c r="N44" t="n">
-        <v>3297.750360443167</v>
+        <v>2996.062531649192</v>
       </c>
       <c r="O44" t="n">
-        <v>3800.722831322503</v>
+        <v>3876.027181978647</v>
       </c>
       <c r="P44" t="n">
-        <v>4195.49719767968</v>
+        <v>4270.801548335825</v>
       </c>
       <c r="Q44" t="n">
-        <v>4653.975400188667</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R44" t="n">
         <v>4778.051722419721</v>
@@ -7679,19 +7679,19 @@
         <v>4461.783306331038</v>
       </c>
       <c r="U44" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V44" t="n">
-        <v>3877.189942261303</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W44" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X44" t="n">
-        <v>3150.955528730109</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y44" t="n">
-        <v>2760.816196754297</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="45">
@@ -7701,46 +7701,46 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>970.5927724973197</v>
+        <v>970.5927724973203</v>
       </c>
       <c r="C45" t="n">
-        <v>796.1397432161928</v>
+        <v>796.1397432161933</v>
       </c>
       <c r="D45" t="n">
-        <v>647.2053335549415</v>
+        <v>647.2053335549422</v>
       </c>
       <c r="E45" t="n">
-        <v>487.967878549486</v>
+        <v>487.9678785494866</v>
       </c>
       <c r="F45" t="n">
-        <v>341.433320576371</v>
+        <v>341.4333205763717</v>
       </c>
       <c r="G45" t="n">
-        <v>205.0702204089891</v>
+        <v>205.0702204089899</v>
       </c>
       <c r="H45" t="n">
-        <v>114.5683260468566</v>
+        <v>114.5683260468568</v>
       </c>
       <c r="I45" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J45" t="n">
-        <v>189.2383039390113</v>
+        <v>189.238303939012</v>
       </c>
       <c r="K45" t="n">
-        <v>427.5025029193577</v>
+        <v>427.5025029193594</v>
       </c>
       <c r="L45" t="n">
-        <v>794.200663232022</v>
+        <v>794.2006632320249</v>
       </c>
       <c r="M45" t="n">
-        <v>1241.476988454344</v>
+        <v>1241.476988454341</v>
       </c>
       <c r="N45" t="n">
-        <v>1715.000032008798</v>
+        <v>1715.000032008796</v>
       </c>
       <c r="O45" t="n">
-        <v>2125.961311426851</v>
+        <v>2125.96131142685</v>
       </c>
       <c r="P45" t="n">
         <v>2436.460902902953</v>
@@ -7755,16 +7755,16 @@
         <v>2464.520220635548</v>
       </c>
       <c r="T45" t="n">
-        <v>2271.877220313403</v>
+        <v>2271.877220313404</v>
       </c>
       <c r="U45" t="n">
-        <v>2043.809373447819</v>
+        <v>2043.80937344782</v>
       </c>
       <c r="V45" t="n">
-        <v>1808.657265216076</v>
+        <v>1808.657265216077</v>
       </c>
       <c r="W45" t="n">
-        <v>1554.419908487874</v>
+        <v>1554.419908487875</v>
       </c>
       <c r="X45" t="n">
         <v>1346.568408282342</v>
@@ -7780,76 +7780,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>635.4755484358892</v>
+        <v>472.4728289383119</v>
       </c>
       <c r="C46" t="n">
-        <v>495.2225301835749</v>
+        <v>472.4728289383119</v>
       </c>
       <c r="D46" t="n">
-        <v>373.7890554468318</v>
+        <v>472.4728289383119</v>
       </c>
       <c r="E46" t="n">
-        <v>254.5591265400313</v>
+        <v>353.2429000315113</v>
       </c>
       <c r="F46" t="n">
-        <v>136.3523437177135</v>
+        <v>235.0361172091935</v>
       </c>
       <c r="G46" t="n">
-        <v>136.3523437177135</v>
+        <v>235.0361172091935</v>
       </c>
       <c r="H46" t="n">
-        <v>95.56103444839442</v>
+        <v>164.2035469544565</v>
       </c>
       <c r="I46" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J46" t="n">
-        <v>168.796036593878</v>
+        <v>168.7960365938783</v>
       </c>
       <c r="K46" t="n">
-        <v>400.8955892413022</v>
+        <v>400.8955892413029</v>
       </c>
       <c r="L46" t="n">
-        <v>745.567757388346</v>
+        <v>745.5677573883474</v>
       </c>
       <c r="M46" t="n">
-        <v>1117.837172686442</v>
+        <v>1117.837172686445</v>
       </c>
       <c r="N46" t="n">
-        <v>1487.357919090855</v>
+        <v>1487.357919090858</v>
       </c>
       <c r="O46" t="n">
-        <v>1814.799887709816</v>
+        <v>1814.799887709819</v>
       </c>
       <c r="P46" t="n">
-        <v>2075.519757842023</v>
+        <v>2075.519757842027</v>
       </c>
       <c r="Q46" t="n">
-        <v>2181.242423693086</v>
+        <v>2181.24242369309</v>
       </c>
       <c r="R46" t="n">
-        <v>2120.095131126206</v>
+        <v>2120.09513112621</v>
       </c>
       <c r="S46" t="n">
-        <v>2120.095131126206</v>
+        <v>1957.092411628629</v>
       </c>
       <c r="T46" t="n">
-        <v>1927.011680371325</v>
+        <v>1764.008960873748</v>
       </c>
       <c r="U46" t="n">
-        <v>1666.591978172561</v>
+        <v>1503.589258674984</v>
       </c>
       <c r="V46" t="n">
-        <v>1440.590654642267</v>
+        <v>1277.58793514469</v>
       </c>
       <c r="W46" t="n">
-        <v>1179.856649280899</v>
+        <v>1016.853929783322</v>
       </c>
       <c r="X46" t="n">
-        <v>980.5502630584739</v>
+        <v>817.5475435608969</v>
       </c>
       <c r="Y46" t="n">
-        <v>788.4408485905363</v>
+        <v>625.4381290929591</v>
       </c>
     </row>
   </sheetData>
@@ -8055,7 +8055,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>50.07369958270195</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
         <v>264.4652370125786</v>
@@ -8064,13 +8064,13 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M3" t="n">
-        <v>465.7050637499999</v>
+        <v>346.2692436516223</v>
       </c>
       <c r="N3" t="n">
         <v>479.3423743435536</v>
       </c>
       <c r="O3" t="n">
-        <v>350.4438349360587</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P3" t="n">
         <v>318.4627686399372</v>
@@ -8295,7 +8295,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>145.0294169142015</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
         <v>370.8403453034592</v>
@@ -8310,7 +8310,7 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P6" t="n">
-        <v>318.4627686399372</v>
+        <v>199.02694854156</v>
       </c>
       <c r="Q6" t="n">
         <v>210.0772877358491</v>
@@ -8529,7 +8529,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>50.07369958270195</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
         <v>264.4652370125786</v>
@@ -8544,13 +8544,13 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O9" t="n">
-        <v>393.8623192767295</v>
+        <v>274.4264991783527</v>
       </c>
       <c r="P9" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>166.6588033951786</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8687,31 +8687,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L11" t="n">
         <v>417.6612145504504</v>
       </c>
       <c r="M11" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N11" t="n">
         <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>380.8001812627454</v>
+        <v>0</v>
       </c>
       <c r="P11" t="n">
-        <v>321.7987081714826</v>
+        <v>34.13957882094024</v>
       </c>
       <c r="Q11" t="n">
-        <v>82.70159106555778</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R11" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8927,22 +8927,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L14" t="n">
-        <v>0</v>
+        <v>176.2173930448433</v>
       </c>
       <c r="M14" t="n">
-        <v>384.8145893755061</v>
+        <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O14" t="n">
         <v>380.8001812627454</v>
       </c>
       <c r="P14" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q14" t="n">
         <v>0</v>
@@ -9161,13 +9161,13 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K17" t="n">
-        <v>0</v>
+        <v>189.7998007892643</v>
       </c>
       <c r="L17" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M17" t="n">
         <v>449.5135334928325</v>
@@ -9179,13 +9179,13 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P17" t="n">
-        <v>160.3329896347532</v>
+        <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9398,19 +9398,19 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K20" t="n">
         <v>324.1454125711647</v>
       </c>
       <c r="L20" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M20" t="n">
-        <v>126.3855966773243</v>
+        <v>37.13651117804329</v>
       </c>
       <c r="N20" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O20" t="n">
         <v>380.8001812627454</v>
@@ -9419,10 +9419,10 @@
         <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9635,7 +9635,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K23" t="n">
         <v>324.1454125711647</v>
@@ -9644,13 +9644,13 @@
         <v>0</v>
       </c>
       <c r="M23" t="n">
-        <v>449.5135334928325</v>
+        <v>344.7025836476839</v>
       </c>
       <c r="N23" t="n">
         <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>130.0020851999082</v>
+        <v>0</v>
       </c>
       <c r="P23" t="n">
         <v>321.7987081714826</v>
@@ -9659,7 +9659,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9872,22 +9872,22 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K26" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L26" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M26" t="n">
-        <v>0</v>
+        <v>128.7323010770069</v>
       </c>
       <c r="N26" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O26" t="n">
-        <v>374.169394802195</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P26" t="n">
         <v>321.7987081714826</v>
@@ -10115,10 +10115,10 @@
         <v>0</v>
       </c>
       <c r="L29" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M29" t="n">
-        <v>0</v>
+        <v>19.79750571619297</v>
       </c>
       <c r="N29" t="n">
         <v>437.3469244119842</v>
@@ -10127,10 +10127,10 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P29" t="n">
-        <v>136.2499899971296</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R29" t="n">
         <v>65.71641987298243</v>
@@ -10346,13 +10346,13 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K32" t="n">
         <v>0</v>
       </c>
       <c r="L32" t="n">
-        <v>19.79750571619286</v>
+        <v>0</v>
       </c>
       <c r="M32" t="n">
         <v>0</v>
@@ -10364,13 +10364,13 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P32" t="n">
-        <v>321.7987081714826</v>
+        <v>238.2160185885842</v>
       </c>
       <c r="Q32" t="n">
         <v>212.3149906599047</v>
       </c>
       <c r="R32" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10583,16 +10583,16 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>16.80057335908884</v>
+        <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>0</v>
+        <v>48.65289230147067</v>
       </c>
       <c r="L35" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M35" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N35" t="n">
         <v>437.3469244119842</v>
@@ -10820,13 +10820,13 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K38" t="n">
         <v>324.1454125711647</v>
       </c>
       <c r="L38" t="n">
-        <v>417.6612145504504</v>
+        <v>229.1543674071817</v>
       </c>
       <c r="M38" t="n">
         <v>0</v>
@@ -10838,13 +10838,13 @@
         <v>0</v>
       </c>
       <c r="P38" t="n">
-        <v>46.30618790178829</v>
+        <v>0</v>
       </c>
       <c r="Q38" t="n">
         <v>212.3149906599047</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -11057,19 +11057,19 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K41" t="n">
-        <v>260.9678829613756</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L41" t="n">
-        <v>417.6612145504504</v>
+        <v>344.7025836476838</v>
       </c>
       <c r="M41" t="n">
         <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O41" t="n">
         <v>0</v>
@@ -11078,10 +11078,10 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11297,25 +11297,25 @@
         <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>292.5685715191332</v>
+        <v>0</v>
       </c>
       <c r="L44" t="n">
         <v>417.6612145504504</v>
       </c>
       <c r="M44" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O44" t="n">
-        <v>0</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P44" t="n">
         <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>212.3149906599047</v>
+        <v>136.2499899971299</v>
       </c>
       <c r="R44" t="n">
         <v>65.71641987298243</v>
@@ -23413,7 +23413,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>16.14213605696651</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
@@ -23428,10 +23428,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>144.7550149143208</v>
+        <v>10.31347632938837</v>
       </c>
       <c r="I13" t="n">
         <v>96.35242040983809</v>
@@ -23461,7 +23461,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23479,7 +23479,7 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23650,28 +23650,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>105.0742887270139</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H16" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I16" t="n">
-        <v>96.35242040983815</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23704,22 +23704,22 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>219.5489492761693</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>42.11219317372155</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23887,7 +23887,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -23899,16 +23899,16 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>166.0258082590283</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H19" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>96.35242040983813</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23938,22 +23938,22 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>189.769025331442</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>88.19525695808809</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>193.9090818731523</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -24124,19 +24124,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>70.66335656800763</v>
       </c>
       <c r="G22" t="n">
         <v>166.0258082590282</v>
@@ -24145,7 +24145,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I22" t="n">
-        <v>96.35242040983815</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,13 +24172,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>189.769025331442</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>219.5489492761693</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24187,7 +24187,7 @@
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>69.12041821276568</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -24364,7 +24364,7 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>29.98536315988861</v>
+        <v>132.5432342665976</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
@@ -24373,16 +24373,16 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>166.0258082590283</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H25" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I25" t="n">
-        <v>96.35242040983815</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,16 +24409,16 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>219.5489492761693</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24427,7 +24427,7 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -24598,13 +24598,13 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>134.4135845072627</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
@@ -24613,7 +24613,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H28" t="n">
         <v>144.7550149143208</v>
@@ -24649,10 +24649,10 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24661,13 +24661,13 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>29.02894347705845</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24838,25 +24838,25 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>166.0258082590282</v>
+        <v>0.6409116931831136</v>
       </c>
       <c r="H31" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I31" t="n">
-        <v>96.35242040983806</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,13 +24883,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>88.9321526700473</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>2.146369152342142</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -24901,7 +24901,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -25075,25 +25075,25 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>138.8504880697912</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>118.0376296177326</v>
       </c>
       <c r="F34" t="n">
         <v>117.0247149940946</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>69.0207079410353</v>
       </c>
       <c r="H34" t="n">
-        <v>116.3586818854841</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>67.9560873810014</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25120,7 +25120,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>60.53581964121064</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -25141,7 +25141,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>81.05823672086132</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -25315,22 +25315,22 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>120.2191399893757</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>117.0247149940946</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>137.6294752301916</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>0.1041230279900844</v>
       </c>
       <c r="I37" t="n">
-        <v>67.9560873810014</v>
+        <v>67.95608738100148</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25357,13 +25357,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>60.53581964121064</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>123.2890173531069</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>191.1526162473325</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -25546,28 +25546,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>27.5726912043709</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>23.55642674434045</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>118.0376296177326</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>117.0247149940946</v>
       </c>
       <c r="G40" t="n">
-        <v>137.6294752301915</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>116.3586818854841</v>
+        <v>116.3586818854842</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>67.95608738100148</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25597,7 +25597,7 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>161.3726923026052</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25792,19 +25792,19 @@
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>3.964581131881753</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>117.0247149940946</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>137.6294752301916</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>116.3586818854842</v>
       </c>
       <c r="I43" t="n">
-        <v>67.95608738100142</v>
+        <v>67.95608738100148</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25831,13 +25831,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>60.53581964121067</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>123.2890173531075</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>191.1526162473325</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -26023,10 +26023,10 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>138.8504880697912</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>120.2191399893757</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
@@ -26038,10 +26038,10 @@
         <v>137.6294752301916</v>
       </c>
       <c r="H46" t="n">
-        <v>75.97528570885827</v>
+        <v>46.23443733329455</v>
       </c>
       <c r="I46" t="n">
-        <v>67.95608738100155</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26071,7 +26071,7 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>161.3726923026053</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>652686.4374086829</v>
+        <v>652686.437408683</v>
       </c>
     </row>
     <row r="10">
@@ -26311,49 +26311,49 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>779989.6813710689</v>
+      </c>
+      <c r="C2" t="n">
         <v>779989.6813710688</v>
-      </c>
-      <c r="C2" t="n">
-        <v>779989.681371069</v>
       </c>
       <c r="D2" t="n">
         <v>779989.681371069</v>
       </c>
       <c r="E2" t="n">
+        <v>754455.3950852677</v>
+      </c>
+      <c r="F2" t="n">
         <v>754455.395085268</v>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="n">
+        <v>754455.3950852682</v>
+      </c>
+      <c r="H2" t="n">
         <v>754455.3950852681</v>
       </c>
-      <c r="G2" t="n">
-        <v>754455.395085268</v>
-      </c>
-      <c r="H2" t="n">
-        <v>754455.395085268</v>
-      </c>
       <c r="I2" t="n">
-        <v>754455.3950852684</v>
+        <v>754455.3950852681</v>
       </c>
       <c r="J2" t="n">
         <v>754455.395085268</v>
       </c>
       <c r="K2" t="n">
-        <v>754455.395085268</v>
+        <v>754455.3950852676</v>
       </c>
       <c r="L2" t="n">
-        <v>769890.7966448729</v>
+        <v>769890.7966448721</v>
       </c>
       <c r="M2" t="n">
-        <v>769890.7966448728</v>
+        <v>769890.7966448724</v>
       </c>
       <c r="N2" t="n">
-        <v>769890.7966448723</v>
+        <v>769890.7966448726</v>
       </c>
       <c r="O2" t="n">
-        <v>769890.7966448722</v>
+        <v>769890.7966448726</v>
       </c>
       <c r="P2" t="n">
-        <v>769890.7966448726</v>
+        <v>769890.7966448719</v>
       </c>
     </row>
     <row r="3">
@@ -26372,7 +26372,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>727377.4139934068</v>
+        <v>727377.4139934069</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26387,13 +26387,13 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.219192593</v>
+        <v>176423.2191925929</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>22717.06642306933</v>
+        <v>22717.06642306929</v>
       </c>
       <c r="M3" t="n">
         <v>129642.3148389448</v>
@@ -26424,40 +26424,40 @@
         <v>183348.686857128</v>
       </c>
       <c r="E4" t="n">
-        <v>18148.49231918987</v>
+        <v>18148.49231918994</v>
       </c>
       <c r="F4" t="n">
         <v>18148.49231918991</v>
       </c>
       <c r="G4" t="n">
+        <v>18148.49231918994</v>
+      </c>
+      <c r="H4" t="n">
         <v>18148.49231918992</v>
-      </c>
-      <c r="H4" t="n">
-        <v>18148.49231918994</v>
       </c>
       <c r="I4" t="n">
         <v>18148.49231918994</v>
       </c>
       <c r="J4" t="n">
-        <v>18148.49231918998</v>
+        <v>18148.4923191899</v>
       </c>
       <c r="K4" t="n">
         <v>18148.49231918994</v>
       </c>
       <c r="L4" t="n">
-        <v>27492.30103190631</v>
+        <v>27492.30103190629</v>
       </c>
       <c r="M4" t="n">
+        <v>27492.30103190628</v>
+      </c>
+      <c r="N4" t="n">
+        <v>27492.30103190628</v>
+      </c>
+      <c r="O4" t="n">
         <v>27492.30103190627</v>
       </c>
-      <c r="N4" t="n">
-        <v>27492.3010319063</v>
-      </c>
-      <c r="O4" t="n">
-        <v>27492.30103190631</v>
-      </c>
       <c r="P4" t="n">
-        <v>27492.30103190641</v>
+        <v>27492.30103190629</v>
       </c>
     </row>
     <row r="5">
@@ -26476,19 +26476,19 @@
         <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
-        <v>96383.51825371364</v>
+        <v>96383.51825371366</v>
       </c>
       <c r="F5" t="n">
-        <v>96383.51825371364</v>
+        <v>96383.51825371366</v>
       </c>
       <c r="G5" t="n">
-        <v>96383.51825371364</v>
+        <v>96383.51825371366</v>
       </c>
       <c r="H5" t="n">
         <v>96383.51825371364</v>
       </c>
       <c r="I5" t="n">
-        <v>96383.51825371364</v>
+        <v>96383.51825371366</v>
       </c>
       <c r="J5" t="n">
         <v>96383.51825371366</v>
@@ -26497,19 +26497,19 @@
         <v>96383.51825371366</v>
       </c>
       <c r="L5" t="n">
-        <v>98770.76957511493</v>
+        <v>98770.76957511491</v>
       </c>
       <c r="M5" t="n">
-        <v>98770.76957511493</v>
+        <v>98770.76957511491</v>
       </c>
       <c r="N5" t="n">
-        <v>98770.76957511493</v>
+        <v>98770.76957511491</v>
       </c>
       <c r="O5" t="n">
         <v>98770.76957511491</v>
       </c>
       <c r="P5" t="n">
-        <v>98770.76957511487</v>
+        <v>98770.76957511491</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-76185.96276401303</v>
+        <v>-76185.96276401292</v>
       </c>
       <c r="C6" t="n">
+        <v>513781.9164505313</v>
+      </c>
+      <c r="D6" t="n">
         <v>513781.9164505316</v>
       </c>
-      <c r="D6" t="n">
-        <v>513781.9164505317</v>
-      </c>
       <c r="E6" t="n">
-        <v>-87454.02948104237</v>
+        <v>-87521.22497126859</v>
       </c>
       <c r="F6" t="n">
-        <v>639923.3845123645</v>
+        <v>639856.1890221386</v>
       </c>
       <c r="G6" t="n">
-        <v>639923.3845123644</v>
+        <v>639856.1890221388</v>
       </c>
       <c r="H6" t="n">
-        <v>639923.3845123644</v>
+        <v>639856.1890221387</v>
       </c>
       <c r="I6" t="n">
-        <v>639923.3845123649</v>
+        <v>639856.1890221387</v>
       </c>
       <c r="J6" t="n">
-        <v>463500.1653197714</v>
+        <v>463432.9698295456</v>
       </c>
       <c r="K6" t="n">
-        <v>639923.3845123644</v>
+        <v>639856.1890221382</v>
       </c>
       <c r="L6" t="n">
-        <v>620910.6596147823</v>
+        <v>620884.0836023442</v>
       </c>
       <c r="M6" t="n">
-        <v>513985.4111989067</v>
+        <v>513958.835186469</v>
       </c>
       <c r="N6" t="n">
-        <v>643627.7260378511</v>
+        <v>643601.1500254141</v>
       </c>
       <c r="O6" t="n">
-        <v>643627.726037851</v>
+        <v>643601.1500254141</v>
       </c>
       <c r="P6" t="n">
-        <v>643627.7260378529</v>
+        <v>643601.1500254134</v>
       </c>
     </row>
   </sheetData>
@@ -26707,25 +26707,25 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>3.218023548783847e-14</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>3.218023548783847e-14</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>28.39633302883669</v>
+        <v>28.39633302883662</v>
       </c>
       <c r="M2" t="n">
-        <v>28.39633302883669</v>
+        <v>28.39633302883662</v>
       </c>
       <c r="N2" t="n">
-        <v>28.39633302883669</v>
+        <v>28.39633302883662</v>
       </c>
       <c r="O2" t="n">
-        <v>28.39633302883666</v>
+        <v>28.39633302883662</v>
       </c>
       <c r="P2" t="n">
-        <v>28.39633302883666</v>
+        <v>28.39633302883662</v>
       </c>
     </row>
     <row r="3">
@@ -26741,7 +26741,7 @@
         <v>377.7436642170866</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170865</v>
       </c>
       <c r="E3" t="n">
         <v>1089.776700593298</v>
@@ -26777,7 +26777,7 @@
         <v>1089.776700593298</v>
       </c>
       <c r="P3" t="n">
-        <v>1089.776700593296</v>
+        <v>1089.776700593298</v>
       </c>
     </row>
     <row r="4">
@@ -26929,13 +26929,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>3.218023548783847e-14</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>28.39633302883666</v>
+        <v>28.39633302883662</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -26966,7 +26966,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>712.0330363762117</v>
+        <v>712.0330363762118</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26999,7 +26999,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>-1.295573980133568e-12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -27166,7 +27166,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>3.218023548783847e-14</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27385,19 +27385,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>46.31167686050486</v>
+        <v>248.5720327015318</v>
       </c>
       <c r="F2" t="n">
         <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27442,7 +27442,7 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -27540,25 +27540,25 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>138.4855611030885</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27579,16 +27579,16 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R4" t="n">
         <v>146.6651919801579</v>
       </c>
       <c r="S4" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>286.2818742419777</v>
@@ -27597,7 +27597,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>56.25950038248513</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -27619,22 +27619,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>244.9000501058453</v>
       </c>
       <c r="H5" t="n">
-        <v>159.9829348400547</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27664,19 +27664,19 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -27774,16 +27774,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>10.24234275801402</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>167.3098022590509</v>
@@ -27816,10 +27816,10 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.12274995491431</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>212.1455389500189</v>
@@ -27828,19 +27828,19 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2818742419777</v>
+        <v>272.4729725277061</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -27853,10 +27853,10 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>136.7864838580475</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
@@ -27865,7 +27865,7 @@
         <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
         <v>323.9227727643571</v>
@@ -27898,16 +27898,16 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481172</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>32.06708939393815</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -27916,10 +27916,10 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28011,19 +28011,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>39.25609903107602</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
         <v>156.1708888417951</v>
@@ -28032,7 +28032,7 @@
         <v>134.9656217923383</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853701</v>
+        <v>45.19995918853702</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28053,7 +28053,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.12274995491431</v>
+        <v>29.12274995491433</v>
       </c>
       <c r="R10" t="n">
         <v>146.6651919801579</v>
@@ -28062,7 +28062,7 @@
         <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>286.2818742419777</v>
@@ -28077,7 +28077,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>1.885271837007252</v>
       </c>
     </row>
     <row r="11">
@@ -29326,7 +29326,7 @@
         <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>8.682195192673605e-13</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
         <v>0</v>
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>28.39633302883669</v>
+        <v>28.39633302883662</v>
       </c>
       <c r="C34" t="n">
-        <v>28.39633302883669</v>
+        <v>28.39633302883662</v>
       </c>
       <c r="D34" t="n">
-        <v>28.39633302883669</v>
+        <v>28.39633302883662</v>
       </c>
       <c r="E34" t="n">
-        <v>28.39633302883669</v>
+        <v>28.39633302883662</v>
       </c>
       <c r="F34" t="n">
-        <v>28.39633302883669</v>
+        <v>28.39633302883662</v>
       </c>
       <c r="G34" t="n">
-        <v>28.39633302883669</v>
+        <v>28.39633302883662</v>
       </c>
       <c r="H34" t="n">
-        <v>28.39633302883669</v>
+        <v>28.39633302883662</v>
       </c>
       <c r="I34" t="n">
-        <v>28.39633302883669</v>
+        <v>28.39633302883662</v>
       </c>
       <c r="J34" t="n">
-        <v>28.39633302883669</v>
+        <v>28.39633302883662</v>
       </c>
       <c r="K34" t="n">
-        <v>28.39633302883669</v>
+        <v>28.39633302883662</v>
       </c>
       <c r="L34" t="n">
-        <v>28.39633302883669</v>
+        <v>28.39633302883662</v>
       </c>
       <c r="M34" t="n">
-        <v>28.39633302883669</v>
+        <v>28.39633302883662</v>
       </c>
       <c r="N34" t="n">
-        <v>28.39633302883669</v>
+        <v>28.39633302883662</v>
       </c>
       <c r="O34" t="n">
-        <v>28.39633302883669</v>
+        <v>28.39633302883662</v>
       </c>
       <c r="P34" t="n">
-        <v>28.39633302883669</v>
+        <v>28.39633302883662</v>
       </c>
       <c r="Q34" t="n">
-        <v>28.39633302883669</v>
+        <v>28.39633302883662</v>
       </c>
       <c r="R34" t="n">
-        <v>28.39633302883669</v>
+        <v>28.39633302883662</v>
       </c>
       <c r="S34" t="n">
-        <v>28.39633302883669</v>
+        <v>28.39633302883662</v>
       </c>
       <c r="T34" t="n">
-        <v>28.39633302883669</v>
+        <v>28.39633302883662</v>
       </c>
       <c r="U34" t="n">
-        <v>28.39633302883669</v>
+        <v>28.39633302883662</v>
       </c>
       <c r="V34" t="n">
-        <v>28.39633302883669</v>
+        <v>28.39633302883662</v>
       </c>
       <c r="W34" t="n">
-        <v>28.39633302883669</v>
+        <v>28.39633302883662</v>
       </c>
       <c r="X34" t="n">
-        <v>28.39633302883669</v>
+        <v>28.39633302883662</v>
       </c>
       <c r="Y34" t="n">
-        <v>28.39633302883669</v>
+        <v>28.39633302883662</v>
       </c>
     </row>
     <row r="35">
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>28.39633302883669</v>
+        <v>28.39633302883662</v>
       </c>
       <c r="C37" t="n">
-        <v>28.39633302883669</v>
+        <v>28.39633302883662</v>
       </c>
       <c r="D37" t="n">
-        <v>28.39633302883669</v>
+        <v>28.39633302883662</v>
       </c>
       <c r="E37" t="n">
-        <v>28.39633302883669</v>
+        <v>28.39633302883662</v>
       </c>
       <c r="F37" t="n">
-        <v>28.39633302883669</v>
+        <v>28.39633302883662</v>
       </c>
       <c r="G37" t="n">
-        <v>28.39633302883669</v>
+        <v>28.39633302883662</v>
       </c>
       <c r="H37" t="n">
-        <v>28.39633302883669</v>
+        <v>28.39633302883662</v>
       </c>
       <c r="I37" t="n">
-        <v>28.39633302883669</v>
+        <v>28.39633302883662</v>
       </c>
       <c r="J37" t="n">
-        <v>28.39633302883669</v>
+        <v>28.39633302883662</v>
       </c>
       <c r="K37" t="n">
-        <v>28.39633302883669</v>
+        <v>28.39633302883662</v>
       </c>
       <c r="L37" t="n">
-        <v>28.39633302883669</v>
+        <v>28.39633302883662</v>
       </c>
       <c r="M37" t="n">
-        <v>28.39633302883669</v>
+        <v>28.39633302883662</v>
       </c>
       <c r="N37" t="n">
-        <v>28.39633302883669</v>
+        <v>28.39633302883662</v>
       </c>
       <c r="O37" t="n">
-        <v>28.39633302883669</v>
+        <v>28.39633302883662</v>
       </c>
       <c r="P37" t="n">
-        <v>28.39633302883669</v>
+        <v>28.39633302883662</v>
       </c>
       <c r="Q37" t="n">
-        <v>28.39633302883669</v>
+        <v>28.39633302883662</v>
       </c>
       <c r="R37" t="n">
-        <v>28.39633302883669</v>
+        <v>28.39633302883662</v>
       </c>
       <c r="S37" t="n">
-        <v>28.39633302883669</v>
+        <v>28.39633302883662</v>
       </c>
       <c r="T37" t="n">
-        <v>28.39633302883669</v>
+        <v>28.39633302883662</v>
       </c>
       <c r="U37" t="n">
-        <v>28.39633302883669</v>
+        <v>28.39633302883662</v>
       </c>
       <c r="V37" t="n">
-        <v>28.39633302883669</v>
+        <v>28.39633302883662</v>
       </c>
       <c r="W37" t="n">
-        <v>28.39633302883669</v>
+        <v>28.39633302883662</v>
       </c>
       <c r="X37" t="n">
-        <v>28.39633302883669</v>
+        <v>28.39633302883662</v>
       </c>
       <c r="Y37" t="n">
-        <v>28.39633302883669</v>
+        <v>28.39633302883662</v>
       </c>
     </row>
     <row r="38">
@@ -30232,7 +30232,7 @@
         <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>-3.979039320256561e-13</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
         <v>0</v>
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>28.39633302883669</v>
+        <v>28.39633302883662</v>
       </c>
       <c r="C40" t="n">
-        <v>28.39633302883669</v>
+        <v>28.39633302883662</v>
       </c>
       <c r="D40" t="n">
-        <v>28.39633302883669</v>
+        <v>28.39633302883662</v>
       </c>
       <c r="E40" t="n">
-        <v>28.39633302883669</v>
+        <v>28.39633302883662</v>
       </c>
       <c r="F40" t="n">
-        <v>28.39633302883669</v>
+        <v>28.39633302883662</v>
       </c>
       <c r="G40" t="n">
-        <v>28.39633302883669</v>
+        <v>28.39633302883662</v>
       </c>
       <c r="H40" t="n">
-        <v>28.39633302883669</v>
+        <v>28.39633302883662</v>
       </c>
       <c r="I40" t="n">
-        <v>28.39633302883669</v>
+        <v>28.39633302883662</v>
       </c>
       <c r="J40" t="n">
-        <v>28.39633302883669</v>
+        <v>28.39633302883662</v>
       </c>
       <c r="K40" t="n">
-        <v>28.39633302883669</v>
+        <v>28.39633302883662</v>
       </c>
       <c r="L40" t="n">
-        <v>28.39633302883669</v>
+        <v>28.39633302883662</v>
       </c>
       <c r="M40" t="n">
-        <v>28.39633302883669</v>
+        <v>28.39633302883662</v>
       </c>
       <c r="N40" t="n">
-        <v>28.39633302883669</v>
+        <v>28.39633302883662</v>
       </c>
       <c r="O40" t="n">
-        <v>28.39633302883669</v>
+        <v>28.39633302883662</v>
       </c>
       <c r="P40" t="n">
-        <v>28.39633302883669</v>
+        <v>28.39633302883662</v>
       </c>
       <c r="Q40" t="n">
-        <v>28.39633302883669</v>
+        <v>28.39633302883662</v>
       </c>
       <c r="R40" t="n">
-        <v>28.39633302883669</v>
+        <v>28.39633302883662</v>
       </c>
       <c r="S40" t="n">
-        <v>28.39633302883669</v>
+        <v>28.39633302883662</v>
       </c>
       <c r="T40" t="n">
-        <v>28.39633302883669</v>
+        <v>28.39633302883662</v>
       </c>
       <c r="U40" t="n">
-        <v>28.39633302883669</v>
+        <v>28.39633302883662</v>
       </c>
       <c r="V40" t="n">
-        <v>28.39633302883669</v>
+        <v>28.39633302883662</v>
       </c>
       <c r="W40" t="n">
-        <v>28.39633302883669</v>
+        <v>28.39633302883662</v>
       </c>
       <c r="X40" t="n">
-        <v>28.39633302883669</v>
+        <v>28.39633302883662</v>
       </c>
       <c r="Y40" t="n">
-        <v>28.39633302883669</v>
+        <v>28.39633302883662</v>
       </c>
     </row>
     <row r="41">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>28.39633302883666</v>
+        <v>28.39633302883662</v>
       </c>
       <c r="C43" t="n">
-        <v>28.39633302883666</v>
+        <v>28.39633302883662</v>
       </c>
       <c r="D43" t="n">
-        <v>28.39633302883666</v>
+        <v>28.39633302883662</v>
       </c>
       <c r="E43" t="n">
-        <v>28.39633302883666</v>
+        <v>28.39633302883662</v>
       </c>
       <c r="F43" t="n">
-        <v>28.39633302883666</v>
+        <v>28.39633302883662</v>
       </c>
       <c r="G43" t="n">
-        <v>28.39633302883666</v>
+        <v>28.39633302883662</v>
       </c>
       <c r="H43" t="n">
-        <v>28.39633302883666</v>
+        <v>28.39633302883662</v>
       </c>
       <c r="I43" t="n">
-        <v>28.39633302883666</v>
+        <v>28.39633302883662</v>
       </c>
       <c r="J43" t="n">
-        <v>28.39633302883666</v>
+        <v>28.39633302883662</v>
       </c>
       <c r="K43" t="n">
-        <v>28.39633302883666</v>
+        <v>28.39633302883662</v>
       </c>
       <c r="L43" t="n">
-        <v>28.39633302883666</v>
+        <v>28.39633302883662</v>
       </c>
       <c r="M43" t="n">
-        <v>28.39633302883666</v>
+        <v>28.39633302883662</v>
       </c>
       <c r="N43" t="n">
-        <v>28.39633302883666</v>
+        <v>28.39633302883662</v>
       </c>
       <c r="O43" t="n">
-        <v>28.39633302883666</v>
+        <v>28.39633302883662</v>
       </c>
       <c r="P43" t="n">
-        <v>28.39633302883666</v>
+        <v>28.39633302883662</v>
       </c>
       <c r="Q43" t="n">
-        <v>28.39633302883666</v>
+        <v>28.39633302883662</v>
       </c>
       <c r="R43" t="n">
-        <v>28.39633302883666</v>
+        <v>28.39633302883662</v>
       </c>
       <c r="S43" t="n">
-        <v>28.39633302883666</v>
+        <v>28.39633302883662</v>
       </c>
       <c r="T43" t="n">
-        <v>28.39633302883666</v>
+        <v>28.39633302883662</v>
       </c>
       <c r="U43" t="n">
-        <v>28.39633302883666</v>
+        <v>28.39633302883662</v>
       </c>
       <c r="V43" t="n">
-        <v>28.39633302883666</v>
+        <v>28.39633302883662</v>
       </c>
       <c r="W43" t="n">
-        <v>28.39633302883666</v>
+        <v>28.39633302883662</v>
       </c>
       <c r="X43" t="n">
-        <v>28.39633302883666</v>
+        <v>28.39633302883662</v>
       </c>
       <c r="Y43" t="n">
-        <v>28.39633302883666</v>
+        <v>28.39633302883662</v>
       </c>
     </row>
     <row r="44">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>28.39633302883666</v>
+        <v>28.39633302883662</v>
       </c>
       <c r="C46" t="n">
-        <v>28.39633302883666</v>
+        <v>28.39633302883662</v>
       </c>
       <c r="D46" t="n">
-        <v>28.39633302883666</v>
+        <v>28.39633302883662</v>
       </c>
       <c r="E46" t="n">
-        <v>28.39633302883666</v>
+        <v>28.39633302883662</v>
       </c>
       <c r="F46" t="n">
-        <v>28.39633302883666</v>
+        <v>28.39633302883662</v>
       </c>
       <c r="G46" t="n">
-        <v>28.39633302883666</v>
+        <v>28.39633302883662</v>
       </c>
       <c r="H46" t="n">
-        <v>28.39633302883666</v>
+        <v>28.39633302883662</v>
       </c>
       <c r="I46" t="n">
-        <v>28.39633302883666</v>
+        <v>28.39633302883662</v>
       </c>
       <c r="J46" t="n">
-        <v>28.39633302883666</v>
+        <v>28.39633302883662</v>
       </c>
       <c r="K46" t="n">
-        <v>28.39633302883666</v>
+        <v>28.39633302883662</v>
       </c>
       <c r="L46" t="n">
-        <v>28.39633302883666</v>
+        <v>28.39633302883662</v>
       </c>
       <c r="M46" t="n">
-        <v>28.39633302883666</v>
+        <v>28.39633302883662</v>
       </c>
       <c r="N46" t="n">
-        <v>28.39633302883666</v>
+        <v>28.39633302883662</v>
       </c>
       <c r="O46" t="n">
-        <v>28.39633302883666</v>
+        <v>28.39633302883662</v>
       </c>
       <c r="P46" t="n">
-        <v>28.39633302883666</v>
+        <v>28.39633302883662</v>
       </c>
       <c r="Q46" t="n">
-        <v>28.39633302883666</v>
+        <v>28.39633302883662</v>
       </c>
       <c r="R46" t="n">
-        <v>28.39633302883666</v>
+        <v>28.39633302883662</v>
       </c>
       <c r="S46" t="n">
-        <v>28.39633302883666</v>
+        <v>28.39633302883662</v>
       </c>
       <c r="T46" t="n">
-        <v>28.39633302883666</v>
+        <v>28.39633302883662</v>
       </c>
       <c r="U46" t="n">
-        <v>28.39633302883666</v>
+        <v>28.39633302883662</v>
       </c>
       <c r="V46" t="n">
-        <v>28.39633302883666</v>
+        <v>28.39633302883662</v>
       </c>
       <c r="W46" t="n">
-        <v>28.39633302883666</v>
+        <v>28.39633302883662</v>
       </c>
       <c r="X46" t="n">
-        <v>28.39633302883666</v>
+        <v>28.39633302883662</v>
       </c>
       <c r="Y46" t="n">
-        <v>28.39633302883666</v>
+        <v>28.39633302883662</v>
       </c>
     </row>
   </sheetData>
@@ -31522,7 +31522,7 @@
         <v>58.54457332554465</v>
       </c>
       <c r="J8" t="n">
-        <v>128.8865178727436</v>
+        <v>128.8865178727435</v>
       </c>
       <c r="K8" t="n">
         <v>193.1674799081577</v>
@@ -31534,7 +31534,7 @@
         <v>266.6471645405367</v>
       </c>
       <c r="N8" t="n">
-        <v>270.9617944338304</v>
+        <v>270.9617944338303</v>
       </c>
       <c r="O8" t="n">
         <v>255.8615389119865</v>
@@ -31546,13 +31546,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633794</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727381</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473551</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31592,31 +31592,31 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.8125052400141106</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188912</v>
       </c>
       <c r="I9" t="n">
-        <v>27.97441286890689</v>
+        <v>27.97441286890688</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396473</v>
       </c>
       <c r="K9" t="n">
-        <v>131.2017781649102</v>
+        <v>131.2017781649101</v>
       </c>
       <c r="L9" t="n">
         <v>176.4169820478007</v>
       </c>
       <c r="M9" t="n">
-        <v>205.8702969983122</v>
+        <v>205.8702969983121</v>
       </c>
       <c r="N9" t="n">
         <v>211.31907117367</v>
       </c>
       <c r="O9" t="n">
-        <v>193.3156655923047</v>
+        <v>193.3156655923046</v>
       </c>
       <c r="P9" t="n">
         <v>155.1528646479577</v>
@@ -31625,16 +31625,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034981</v>
+        <v>50.4465972703498</v>
       </c>
       <c r="S9" t="n">
         <v>15.09192847131472</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372664</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619151</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,49 +31671,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078609</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644441</v>
+        <v>6.05628366564444</v>
       </c>
       <c r="I10" t="n">
         <v>20.48485313492004</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813576</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302236</v>
       </c>
       <c r="L10" t="n">
         <v>101.2724571246924</v>
       </c>
       <c r="M10" t="n">
-        <v>106.777606591725</v>
+        <v>106.7776065917249</v>
       </c>
       <c r="N10" t="n">
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175841</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383798</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678006</v>
       </c>
       <c r="R10" t="n">
         <v>30.62819939701163</v>
       </c>
       <c r="S10" t="n">
-        <v>11.87105908695336</v>
+        <v>11.87105908695335</v>
       </c>
       <c r="T10" t="n">
         <v>2.910483970197223</v>
       </c>
       <c r="U10" t="n">
-        <v>0.0371551145131561</v>
+        <v>0.03715511451315609</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -32561,7 +32561,7 @@
         <v>593.9283018233475</v>
       </c>
       <c r="N21" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O21" t="n">
         <v>557.708647897025</v>
@@ -32792,7 +32792,7 @@
         <v>378.5123470353157</v>
       </c>
       <c r="L24" t="n">
-        <v>508.9565619138797</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M24" t="n">
         <v>593.9283018233475</v>
@@ -33044,7 +33044,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q27" t="n">
-        <v>299.2156706987485</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R27" t="n">
         <v>145.5365940905541</v>
@@ -33281,7 +33281,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q30" t="n">
-        <v>299.2156706987485</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R30" t="n">
         <v>145.5365940905541</v>
@@ -33503,7 +33503,7 @@
         <v>378.5123470353157</v>
       </c>
       <c r="L33" t="n">
-        <v>508.9565619138797</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M33" t="n">
         <v>593.9283018233475</v>
@@ -33752,7 +33752,7 @@
         <v>557.708647897025</v>
       </c>
       <c r="P36" t="n">
-        <v>447.6103584002929</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q36" t="n">
         <v>299.2156706987487</v>
@@ -33971,7 +33971,7 @@
         <v>80.70516131752258</v>
       </c>
       <c r="J39" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K39" t="n">
         <v>378.5123470353157</v>
@@ -33989,7 +33989,7 @@
         <v>557.708647897025</v>
       </c>
       <c r="P39" t="n">
-        <v>447.6103584002929</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q39" t="n">
         <v>299.2156706987487</v>
@@ -34217,7 +34217,7 @@
         <v>508.9565619138796</v>
       </c>
       <c r="M42" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233476</v>
       </c>
       <c r="N42" t="n">
         <v>609.6478166837925</v>
@@ -34357,49 +34357,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>4.381011861681588</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H44" t="n">
-        <v>44.86703772844658</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I44" t="n">
-        <v>168.8989597974796</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J44" t="n">
-        <v>371.8329054953981</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K44" t="n">
-        <v>557.2811376003798</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L44" t="n">
-        <v>691.3565293623179</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M44" t="n">
-        <v>769.2673490574979</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N44" t="n">
-        <v>781.7148990095008</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O44" t="n">
-        <v>738.1512123099044</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P44" t="n">
-        <v>629.99498197464</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q44" t="n">
-        <v>473.099994678168</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R44" t="n">
-        <v>275.1987363563563</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S44" t="n">
-        <v>99.83230779806931</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T44" t="n">
-        <v>19.17787942451116</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U44" t="n">
-        <v>0.350480948934527</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34436,49 +34436,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.344047997502561</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H45" t="n">
-        <v>22.63856881798527</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I45" t="n">
-        <v>80.70516131752241</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J45" t="n">
-        <v>221.4611312026433</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K45" t="n">
-        <v>378.5123470353149</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L45" t="n">
-        <v>508.9565619138785</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M45" t="n">
-        <v>593.9283018233541</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N45" t="n">
-        <v>609.6478166837912</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O45" t="n">
-        <v>557.7086478970239</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P45" t="n">
-        <v>447.6103584002918</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q45" t="n">
-        <v>299.2156706987481</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R45" t="n">
-        <v>145.5365940905538</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S45" t="n">
-        <v>43.53966346238307</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T45" t="n">
-        <v>9.448158375898478</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1542136840462212</v>
+        <v>0.1542136840462215</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34515,49 +34515,49 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>1.965171099430534</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H46" t="n">
-        <v>17.47215759311876</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I46" t="n">
-        <v>59.09805451742007</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J46" t="n">
-        <v>138.9375967297387</v>
+        <v>138.937596729739</v>
       </c>
       <c r="K46" t="n">
-        <v>228.3171513702019</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L46" t="n">
-        <v>292.1673469098814</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M46" t="n">
-        <v>308.0495024316426</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N46" t="n">
-        <v>300.7247737883109</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O46" t="n">
-        <v>277.7680023085995</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P46" t="n">
-        <v>237.6785118802164</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q46" t="n">
-        <v>164.5562817895877</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R46" t="n">
-        <v>88.36123870712197</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S46" t="n">
-        <v>34.24757270553029</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T46" t="n">
-        <v>8.396640152112278</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1071911508780292</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34775,7 +34775,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>76.01733575770689</v>
       </c>
       <c r="K3" t="n">
         <v>257.8255762031298</v>
@@ -34784,13 +34784,13 @@
         <v>408.7029475713857</v>
       </c>
       <c r="M3" t="n">
-        <v>529.4413268262938</v>
+        <v>410.0055067279162</v>
       </c>
       <c r="N3" t="n">
         <v>559.3197334338902</v>
       </c>
       <c r="O3" t="n">
-        <v>401.1632560839189</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P3" t="n">
         <v>339.6412258735646</v>
@@ -35015,7 +35015,7 @@
         <v>76.01733575770689</v>
       </c>
       <c r="K6" t="n">
-        <v>138.3897561047527</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L6" t="n">
         <v>408.7029475713857</v>
@@ -35030,7 +35030,7 @@
         <v>444.5817404245897</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735646</v>
+        <v>220.2054057751875</v>
       </c>
       <c r="Q6" t="n">
         <v>173.8110948137341</v>
@@ -35249,28 +35249,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>76.01733575770687</v>
       </c>
       <c r="K9" t="n">
-        <v>257.8255762031298</v>
+        <v>257.8255762031297</v>
       </c>
       <c r="L9" t="n">
         <v>408.7029475713857</v>
       </c>
       <c r="M9" t="n">
-        <v>529.4413268262938</v>
+        <v>529.4413268262937</v>
       </c>
       <c r="N9" t="n">
         <v>559.3197334338902</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245897</v>
+        <v>325.1459203262129</v>
       </c>
       <c r="P9" t="n">
         <v>339.6412258735646</v>
       </c>
       <c r="Q9" t="n">
-        <v>130.3926104730635</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35331,13 +35331,13 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713951</v>
       </c>
       <c r="L10" t="n">
         <v>128.8624823850085</v>
       </c>
       <c r="M10" t="n">
-        <v>146.3614835535656</v>
+        <v>146.3614835535655</v>
       </c>
       <c r="N10" t="n">
         <v>148.370846145888</v>
@@ -35346,7 +35346,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873147</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35407,31 +35407,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K11" t="n">
-        <v>337.1912865554005</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L11" t="n">
         <v>873.2513289427826</v>
       </c>
       <c r="M11" t="n">
-        <v>538.9211158302268</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N11" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O11" t="n">
-        <v>888.8531821509645</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P11" t="n">
-        <v>720.5606943908545</v>
+        <v>432.9015650403121</v>
       </c>
       <c r="Q11" t="n">
-        <v>333.4958958692773</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R11" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35568,7 +35568,7 @@
         <v>45.57841661306622</v>
       </c>
       <c r="K13" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L13" t="n">
         <v>319.7573721701981</v>
@@ -35580,7 +35580,7 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O13" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P13" t="n">
         <v>234.9570711451104</v>
@@ -35647,22 +35647,22 @@
         <v>359.8836161407863</v>
       </c>
       <c r="K14" t="n">
-        <v>337.1912865554005</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L14" t="n">
-        <v>455.5901143923322</v>
+        <v>631.8075074371754</v>
       </c>
       <c r="M14" t="n">
-        <v>923.7357052057329</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N14" t="n">
-        <v>989.6487598248956</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O14" t="n">
         <v>888.8531821509645</v>
       </c>
       <c r="P14" t="n">
-        <v>398.7619862193719</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q14" t="n">
         <v>250.7943048037195</v>
@@ -35802,10 +35802,10 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>45.57841661306617</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K16" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L16" t="n">
         <v>319.7573721701981</v>
@@ -35814,10 +35814,10 @@
         <v>347.6333793934838</v>
       </c>
       <c r="N16" t="n">
-        <v>344.85694616754</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O16" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P16" t="n">
         <v>234.9570711451104</v>
@@ -35881,13 +35881,13 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K17" t="n">
-        <v>337.1912865554005</v>
+        <v>526.9910873446648</v>
       </c>
       <c r="L17" t="n">
-        <v>455.5901143923322</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M17" t="n">
         <v>988.4346493230593</v>
@@ -35899,13 +35899,13 @@
         <v>888.8531821509645</v>
       </c>
       <c r="P17" t="n">
-        <v>559.0949758541251</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q17" t="n">
-        <v>463.1092954636242</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R17" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -36039,13 +36039,13 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>45.57841661306617</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K19" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L19" t="n">
-        <v>319.757372170198</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M19" t="n">
         <v>347.6333793934838</v>
@@ -36054,10 +36054,10 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O19" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P19" t="n">
-        <v>234.9570711451103</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q19" t="n">
         <v>78.39423853789366</v>
@@ -36118,19 +36118,19 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K20" t="n">
         <v>661.3366991265652</v>
       </c>
       <c r="L20" t="n">
-        <v>455.5901143923322</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M20" t="n">
-        <v>665.3067125075511</v>
+        <v>576.0576270082701</v>
       </c>
       <c r="N20" t="n">
-        <v>989.6487598248956</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O20" t="n">
         <v>888.8531821509645</v>
@@ -36139,10 +36139,10 @@
         <v>398.7619862193719</v>
       </c>
       <c r="Q20" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R20" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36209,7 +36209,7 @@
         <v>451.7942679013292</v>
       </c>
       <c r="N21" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O21" t="n">
         <v>415.1124034525806</v>
@@ -36276,22 +36276,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>45.57841661306617</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K22" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L22" t="n">
-        <v>319.757372170198</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M22" t="n">
         <v>347.6333793934838</v>
       </c>
       <c r="N22" t="n">
-        <v>344.85694616754</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O22" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P22" t="n">
         <v>234.9570711451104</v>
@@ -36355,7 +36355,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K23" t="n">
         <v>661.3366991265652</v>
@@ -36364,13 +36364,13 @@
         <v>455.5901143923322</v>
       </c>
       <c r="M23" t="n">
-        <v>988.4346493230593</v>
+        <v>883.6236994779107</v>
       </c>
       <c r="N23" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O23" t="n">
-        <v>638.0550860881273</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P23" t="n">
         <v>720.5606943908545</v>
@@ -36379,7 +36379,7 @@
         <v>463.1092954636242</v>
       </c>
       <c r="R23" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36440,7 +36440,7 @@
         <v>240.6709080609567</v>
       </c>
       <c r="L24" t="n">
-        <v>370.4021821340055</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M24" t="n">
         <v>451.7942679013292</v>
@@ -36513,13 +36513,13 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>45.57841661306617</v>
+        <v>45.57841661306625</v>
       </c>
       <c r="K25" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L25" t="n">
-        <v>319.757372170198</v>
+        <v>319.7573721701982</v>
       </c>
       <c r="M25" t="n">
         <v>347.6333793934838</v>
@@ -36528,7 +36528,7 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O25" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P25" t="n">
         <v>234.9570711451104</v>
@@ -36592,22 +36592,22 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K26" t="n">
-        <v>661.3366991265652</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L26" t="n">
-        <v>873.2513289427826</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M26" t="n">
-        <v>538.9211158302268</v>
+        <v>667.6534169072337</v>
       </c>
       <c r="N26" t="n">
-        <v>552.3018354129115</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O26" t="n">
-        <v>882.2223956904141</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P26" t="n">
         <v>720.5606943908545</v>
@@ -36692,7 +36692,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q27" t="n">
-        <v>159.233896612727</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36835,10 +36835,10 @@
         <v>337.1912865554005</v>
       </c>
       <c r="L29" t="n">
-        <v>873.2513289427826</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M29" t="n">
-        <v>538.9211158302268</v>
+        <v>558.7186215464197</v>
       </c>
       <c r="N29" t="n">
         <v>989.6487598248956</v>
@@ -36847,10 +36847,10 @@
         <v>888.8531821509645</v>
       </c>
       <c r="P29" t="n">
-        <v>535.0119762165015</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q29" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R29" t="n">
         <v>125.3296184152072</v>
@@ -36929,7 +36929,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q30" t="n">
-        <v>159.233896612727</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36987,13 +36987,13 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>45.57841661306626</v>
+        <v>45.57841661306625</v>
       </c>
       <c r="K31" t="n">
         <v>206.0476595443196</v>
       </c>
       <c r="L31" t="n">
-        <v>319.7573721701982</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M31" t="n">
         <v>347.6333793934838</v>
@@ -37005,7 +37005,7 @@
         <v>302.3531302226398</v>
       </c>
       <c r="P31" t="n">
-        <v>234.9570711451105</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q31" t="n">
         <v>78.39423853789366</v>
@@ -37066,13 +37066,13 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K32" t="n">
         <v>337.1912865554005</v>
       </c>
       <c r="L32" t="n">
-        <v>475.387620108525</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M32" t="n">
         <v>538.9211158302268</v>
@@ -37084,13 +37084,13 @@
         <v>888.8531821509645</v>
       </c>
       <c r="P32" t="n">
-        <v>720.5606943908545</v>
+        <v>636.978004807956</v>
       </c>
       <c r="Q32" t="n">
         <v>463.1092954636242</v>
       </c>
       <c r="R32" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37151,7 +37151,7 @@
         <v>240.6709080609567</v>
       </c>
       <c r="L33" t="n">
-        <v>370.4021821340055</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M33" t="n">
         <v>451.7942679013292</v>
@@ -37224,22 +37224,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>73.97474964190292</v>
+        <v>73.97474964190283</v>
       </c>
       <c r="K34" t="n">
-        <v>234.4439925731563</v>
+        <v>234.4439925731562</v>
       </c>
       <c r="L34" t="n">
-        <v>348.1537051990348</v>
+        <v>348.1537051990347</v>
       </c>
       <c r="M34" t="n">
         <v>376.0297124223205</v>
       </c>
       <c r="N34" t="n">
-        <v>373.2532791963768</v>
+        <v>373.2532791963767</v>
       </c>
       <c r="O34" t="n">
-        <v>330.7494632514765</v>
+        <v>330.7494632514764</v>
       </c>
       <c r="P34" t="n">
         <v>263.3534041739471</v>
@@ -37303,16 +37303,16 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>207.5875743278014</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K35" t="n">
-        <v>337.1912865554005</v>
+        <v>385.8441788568712</v>
       </c>
       <c r="L35" t="n">
-        <v>455.5901143923322</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M35" t="n">
-        <v>988.4346493230593</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N35" t="n">
         <v>989.6487598248956</v>
@@ -37400,7 +37400,7 @@
         <v>415.1124034525806</v>
       </c>
       <c r="P36" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q36" t="n">
         <v>159.2338966127272</v>
@@ -37461,22 +37461,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>73.97474964190292</v>
+        <v>73.97474964190283</v>
       </c>
       <c r="K37" t="n">
-        <v>234.4439925731563</v>
+        <v>234.4439925731562</v>
       </c>
       <c r="L37" t="n">
-        <v>348.1537051990348</v>
+        <v>348.1537051990347</v>
       </c>
       <c r="M37" t="n">
         <v>376.0297124223205</v>
       </c>
       <c r="N37" t="n">
-        <v>373.2532791963768</v>
+        <v>373.2532791963767</v>
       </c>
       <c r="O37" t="n">
-        <v>330.7494632514765</v>
+        <v>330.7494632514764</v>
       </c>
       <c r="P37" t="n">
         <v>263.3534041739471</v>
@@ -37540,13 +37540,13 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K38" t="n">
         <v>661.3366991265652</v>
       </c>
       <c r="L38" t="n">
-        <v>873.2513289427826</v>
+        <v>684.7444817995139</v>
       </c>
       <c r="M38" t="n">
         <v>538.9211158302268</v>
@@ -37558,13 +37558,13 @@
         <v>508.0530008882191</v>
       </c>
       <c r="P38" t="n">
-        <v>445.0681741211602</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q38" t="n">
         <v>463.1092954636242</v>
       </c>
       <c r="R38" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37619,7 +37619,7 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597716</v>
       </c>
       <c r="K39" t="n">
         <v>240.6709080609567</v>
@@ -37637,7 +37637,7 @@
         <v>415.1124034525806</v>
       </c>
       <c r="P39" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q39" t="n">
         <v>159.2338966127272</v>
@@ -37698,22 +37698,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>73.97474964190292</v>
+        <v>73.97474964190283</v>
       </c>
       <c r="K40" t="n">
-        <v>234.4439925731563</v>
+        <v>234.4439925731562</v>
       </c>
       <c r="L40" t="n">
-        <v>348.1537051990348</v>
+        <v>348.1537051990347</v>
       </c>
       <c r="M40" t="n">
         <v>376.0297124223205</v>
       </c>
       <c r="N40" t="n">
-        <v>373.2532791963768</v>
+        <v>373.2532791963767</v>
       </c>
       <c r="O40" t="n">
-        <v>330.7494632514765</v>
+        <v>330.7494632514764</v>
       </c>
       <c r="P40" t="n">
         <v>263.3534041739471</v>
@@ -37777,19 +37777,19 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K41" t="n">
-        <v>598.159169516776</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L41" t="n">
-        <v>873.2513289427826</v>
+        <v>800.2926980400159</v>
       </c>
       <c r="M41" t="n">
         <v>538.9211158302268</v>
       </c>
       <c r="N41" t="n">
-        <v>989.6487598248956</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O41" t="n">
         <v>508.0530008882191</v>
@@ -37798,10 +37798,10 @@
         <v>720.5606943908545</v>
       </c>
       <c r="Q41" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R41" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37865,7 +37865,7 @@
         <v>370.4021821340054</v>
       </c>
       <c r="M42" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013293</v>
       </c>
       <c r="N42" t="n">
         <v>478.3061046004592</v>
@@ -37935,13 +37935,13 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>73.97474964190289</v>
+        <v>73.97474964190283</v>
       </c>
       <c r="K43" t="n">
         <v>234.4439925731562</v>
       </c>
       <c r="L43" t="n">
-        <v>348.1537051990348</v>
+        <v>348.1537051990347</v>
       </c>
       <c r="M43" t="n">
         <v>376.0297124223205</v>
@@ -38014,31 +38014,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>190.7870009687118</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K44" t="n">
-        <v>629.7598580745324</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L44" t="n">
-        <v>873.2513289427811</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M44" t="n">
-        <v>988.4346493230577</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N44" t="n">
-        <v>552.3018354129099</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O44" t="n">
-        <v>508.0530008882176</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P44" t="n">
-        <v>398.7619862193705</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q44" t="n">
-        <v>463.1092954636232</v>
+        <v>387.0442948008494</v>
       </c>
       <c r="R44" t="n">
-        <v>125.3296184152067</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38093,28 +38093,28 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>94.62350453597665</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K45" t="n">
-        <v>240.6709080609559</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L45" t="n">
-        <v>370.4021821340044</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M45" t="n">
-        <v>451.7942679013357</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N45" t="n">
-        <v>478.306104600458</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O45" t="n">
-        <v>415.1124034525794</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P45" t="n">
-        <v>313.6359509859615</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q45" t="n">
-        <v>159.2338966127265</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38172,28 +38172,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>73.9747496419026</v>
+        <v>73.97474964190286</v>
       </c>
       <c r="K46" t="n">
-        <v>234.4439925731558</v>
+        <v>234.4439925731562</v>
       </c>
       <c r="L46" t="n">
-        <v>348.1537051990342</v>
+        <v>348.1537051990348</v>
       </c>
       <c r="M46" t="n">
-        <v>376.0297124223198</v>
+        <v>376.0297124223205</v>
       </c>
       <c r="N46" t="n">
-        <v>373.2532791963761</v>
+        <v>373.2532791963767</v>
       </c>
       <c r="O46" t="n">
-        <v>330.7494632514758</v>
+        <v>330.7494632514764</v>
       </c>
       <c r="P46" t="n">
-        <v>263.3534041739466</v>
+        <v>263.3534041739471</v>
       </c>
       <c r="Q46" t="n">
-        <v>106.79057156673</v>
+        <v>106.7905715667303</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
